--- a/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
+++ b/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\US\Models\eps-1.2.3 WIP-K\InputData\elec\ARpUIiRC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21075" windowHeight="9030" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21075" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Weighting" sheetId="8" r:id="rId3"/>
     <sheet name="ARpUIiRC" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="153">
   <si>
     <t>ARpUIiRC Annual Retirement per Unit Increase in Relative Cost</t>
   </si>
@@ -127,36 +122,6 @@
   </si>
   <si>
     <t>into two categories:</t>
-  </si>
-  <si>
-    <r>
-      <t>Low Operating Cost:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Some sources are immune to economic early retirement</t>
-    </r>
-  </si>
-  <si>
-    <t>because the vast majority of their costs occurred during the permitting and</t>
-  </si>
-  <si>
-    <t>construction phases, and continuing to operate them now that they are built</t>
-  </si>
-  <si>
-    <t>is so cheap that the plants are likely to continue to be operated until the end</t>
-  </si>
-  <si>
-    <t>of their lifetimes or some non-economic influence intervenes (such as a</t>
-  </si>
-  <si>
-    <t>policy to close nuclear plants early, which could be represented by the early</t>
   </si>
   <si>
     <r>
@@ -512,9 +477,6 @@
     <t>cost and the average cost of electricity generation for each of the BAU and Policy</t>
   </si>
   <si>
-    <t>retirement policy lever).  These sources include all renewables.</t>
-  </si>
-  <si>
     <t>Levelized Fixed O&amp;M + Variable (including O&amp;M and fuel) Costs</t>
   </si>
   <si>
@@ -523,11 +485,23 @@
   <si>
     <t>Method Using Updated Data for Exiting Plant O&amp;M Costs</t>
   </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -685,7 +659,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -720,7 +694,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -929,11 +903,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -947,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,19 +931,19 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -996,7 +968,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1045,7 +1017,7 @@
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1061,95 +1033,60 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>1.07</v>
       </c>
-      <c r="B50" t="s">
-        <v>57</v>
+      <c r="B42" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1162,9 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL113"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D104" sqref="D103:D104"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1173,7 +1108,7 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B1">
         <v>2015</v>
@@ -1202,7 +1137,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1231,7 +1166,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -1260,7 +1195,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -1289,7 +1224,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>54</v>
@@ -1318,7 +1253,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>84</v>
@@ -1347,7 +1282,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>2015</v>
@@ -1376,192 +1311,192 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B9" s="6">
-        <f>B2*About!$A$50</f>
+        <f>B2*About!$A$42</f>
         <v>0</v>
       </c>
       <c r="C9" s="6">
-        <f>C2*About!$A$50</f>
+        <f>C2*About!$A$42</f>
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <f>D2*About!$A$50</f>
+        <f>D2*About!$A$42</f>
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <f>E2*About!$A$50</f>
+        <f>E2*About!$A$42</f>
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <f>F2*About!$A$50</f>
+        <f>F2*About!$A$42</f>
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <f>G2*About!$A$50</f>
+        <f>G2*About!$A$42</f>
         <v>0</v>
       </c>
       <c r="H9" s="6">
-        <f>H2*About!$A$50</f>
+        <f>H2*About!$A$42</f>
         <v>0</v>
       </c>
       <c r="I9" s="6">
-        <f>I2*About!$A$50</f>
+        <f>I2*About!$A$42</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B10" s="6">
-        <f>B3*About!$A$50</f>
+        <f>B3*About!$A$42</f>
         <v>11.770000000000001</v>
       </c>
       <c r="C10" s="6">
-        <f>C3*About!$A$50</f>
+        <f>C3*About!$A$42</f>
         <v>11.770000000000001</v>
       </c>
       <c r="D10" s="6">
-        <f>D3*About!$A$50</f>
+        <f>D3*About!$A$42</f>
         <v>13.91</v>
       </c>
       <c r="E10" s="6">
-        <f>E3*About!$A$50</f>
+        <f>E3*About!$A$42</f>
         <v>16.05</v>
       </c>
       <c r="F10" s="6">
-        <f>F3*About!$A$50</f>
+        <f>F3*About!$A$42</f>
         <v>19.260000000000002</v>
       </c>
       <c r="G10" s="6">
-        <f>G3*About!$A$50</f>
+        <f>G3*About!$A$42</f>
         <v>21.400000000000002</v>
       </c>
       <c r="H10" s="6">
-        <f>H3*About!$A$50</f>
+        <f>H3*About!$A$42</f>
         <v>24.610000000000003</v>
       </c>
       <c r="I10" s="6">
-        <f>I3*About!$A$50</f>
+        <f>I3*About!$A$42</f>
         <v>26.75</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B11" s="6">
-        <f>B4*About!$A$50</f>
+        <f>B4*About!$A$42</f>
         <v>38.520000000000003</v>
       </c>
       <c r="C11" s="6">
-        <f>C4*About!$A$50</f>
+        <f>C4*About!$A$42</f>
         <v>42.800000000000004</v>
       </c>
       <c r="D11" s="6">
-        <f>D4*About!$A$50</f>
+        <f>D4*About!$A$42</f>
         <v>48.150000000000006</v>
       </c>
       <c r="E11" s="6">
-        <f>E4*About!$A$50</f>
+        <f>E4*About!$A$42</f>
         <v>52.43</v>
       </c>
       <c r="F11" s="6">
-        <f>F4*About!$A$50</f>
+        <f>F4*About!$A$42</f>
         <v>56.71</v>
       </c>
       <c r="G11" s="6">
-        <f>G4*About!$A$50</f>
+        <f>G4*About!$A$42</f>
         <v>62.06</v>
       </c>
       <c r="H11" s="6">
-        <f>H4*About!$A$50</f>
+        <f>H4*About!$A$42</f>
         <v>66.34</v>
       </c>
       <c r="I11" s="6">
-        <f>I4*About!$A$50</f>
+        <f>I4*About!$A$42</f>
         <v>71.69</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B12" s="6">
-        <f>B5*About!$A$50</f>
+        <f>B5*About!$A$42</f>
         <v>57.78</v>
       </c>
       <c r="C12" s="6">
-        <f>C5*About!$A$50</f>
+        <f>C5*About!$A$42</f>
         <v>65.27000000000001</v>
       </c>
       <c r="D12" s="6">
-        <f>D5*About!$A$50</f>
+        <f>D5*About!$A$42</f>
         <v>70.62</v>
       </c>
       <c r="E12" s="6">
-        <f>E5*About!$A$50</f>
+        <f>E5*About!$A$42</f>
         <v>75.97</v>
       </c>
       <c r="F12" s="6">
-        <f>F5*About!$A$50</f>
+        <f>F5*About!$A$42</f>
         <v>81.320000000000007</v>
       </c>
       <c r="G12" s="6">
-        <f>G5*About!$A$50</f>
+        <f>G5*About!$A$42</f>
         <v>87.740000000000009</v>
       </c>
       <c r="H12" s="6">
-        <f>H5*About!$A$50</f>
+        <f>H5*About!$A$42</f>
         <v>92.02000000000001</v>
       </c>
       <c r="I12" s="6">
-        <f>I5*About!$A$50</f>
+        <f>I5*About!$A$42</f>
         <v>98.440000000000012</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B13" s="6">
-        <f>B6*About!$A$50</f>
+        <f>B6*About!$A$42</f>
         <v>89.88000000000001</v>
       </c>
       <c r="C13" s="6">
-        <f>C6*About!$A$50</f>
+        <f>C6*About!$A$42</f>
         <v>129.47</v>
       </c>
       <c r="D13" s="6">
-        <f>D6*About!$A$50</f>
+        <f>D6*About!$A$42</f>
         <v>144.45000000000002</v>
       </c>
       <c r="E13" s="6">
-        <f>E6*About!$A$50</f>
+        <f>E6*About!$A$42</f>
         <v>159.43</v>
       </c>
       <c r="F13" s="6">
-        <f>F6*About!$A$50</f>
+        <f>F6*About!$A$42</f>
         <v>176.55</v>
       </c>
       <c r="G13" s="6">
-        <f>G6*About!$A$50</f>
+        <f>G6*About!$A$42</f>
         <v>192.60000000000002</v>
       </c>
       <c r="H13" s="6">
-        <f>H6*About!$A$50</f>
+        <f>H6*About!$A$42</f>
         <v>206.51000000000002</v>
       </c>
       <c r="I13" s="6">
-        <f>I6*About!$A$50</f>
+        <f>I6*About!$A$42</f>
         <v>221.49</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -1677,7 +1612,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -1793,7 +1728,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
@@ -1945,7 +1880,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
@@ -2097,7 +2032,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
@@ -2249,7 +2184,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
@@ -2401,7 +2336,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B22" s="6">
         <v>2016</v>
@@ -2511,7 +2446,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B23" s="6">
         <f>B16</f>
@@ -2656,7 +2591,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B24" s="6">
         <f t="shared" ref="B24:Q27" si="15">B17</f>
@@ -2801,7 +2736,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B25" s="6">
         <f t="shared" si="15"/>
@@ -2946,7 +2881,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B26" s="6">
         <f t="shared" si="15"/>
@@ -3091,7 +3026,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B27" s="6">
         <f t="shared" si="15"/>
@@ -3236,7 +3171,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B29" s="6">
         <v>2016</v>
@@ -3346,7 +3281,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <f t="shared" ref="B30:AI33" si="16">B24/$AJ24</f>
@@ -3491,7 +3426,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <f t="shared" si="16"/>
@@ -3636,7 +3571,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <f t="shared" si="16"/>
@@ -3781,7 +3716,7 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <f t="shared" si="16"/>
@@ -3926,7 +3861,7 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B35" s="6">
         <v>2014</v>
@@ -3947,7 +3882,7 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>311</v>
@@ -3961,7 +3896,7 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>311</v>
@@ -3975,7 +3910,7 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>311</v>
@@ -3989,7 +3924,7 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>311</v>
@@ -4003,7 +3938,7 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>311</v>
@@ -4017,7 +3952,7 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B42" s="6">
         <v>2014</v>
@@ -4031,7 +3966,7 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>198</v>
@@ -4045,7 +3980,7 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>198</v>
@@ -4059,7 +3994,7 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>198</v>
@@ -4073,7 +4008,7 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>198</v>
@@ -4087,7 +4022,7 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>198</v>
@@ -4101,7 +4036,7 @@
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B49" s="2">
         <v>2014</v>
@@ -4172,7 +4107,7 @@
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B50" s="6">
         <f t="shared" ref="B50:H50" si="18">TREND($B36:$C36,$B$35:$C$35,B$49)</f>
@@ -4280,7 +4215,7 @@
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B51" s="6">
         <f t="shared" ref="B51:B54" si="20">TREND($B37:$C37,$B$35:$C$35,B$49)</f>
@@ -4388,7 +4323,7 @@
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B52" s="6">
         <f t="shared" si="20"/>
@@ -4496,7 +4431,7 @@
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B53" s="6">
         <f t="shared" si="20"/>
@@ -4604,7 +4539,7 @@
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <f t="shared" si="20"/>
@@ -4712,7 +4647,7 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2">
         <v>2014</v>
@@ -4783,7 +4718,7 @@
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B57" s="6">
         <f t="shared" ref="B57:H57" si="23">TREND($B43:$C43,$B$42:$C$42,B$49)</f>
@@ -4876,7 +4811,7 @@
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B58" s="6">
         <f t="shared" ref="B58:B61" si="25">TREND($B44:$C44,$B$42:$C$42,B$49)</f>
@@ -4969,7 +4904,7 @@
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B59" s="6">
         <f t="shared" si="25"/>
@@ -5062,7 +4997,7 @@
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B60" s="6">
         <f t="shared" si="25"/>
@@ -5155,7 +5090,7 @@
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B61" s="6">
         <f t="shared" si="25"/>
@@ -5248,7 +5183,7 @@
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B64" s="6">
         <v>2016</v>
@@ -5320,7 +5255,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B65" s="6">
         <f>B50</f>
@@ -5413,7 +5348,7 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B66" s="6">
         <f t="shared" ref="B66:Q69" si="29">B51</f>
@@ -5506,7 +5441,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B67" s="6">
         <f t="shared" si="29"/>
@@ -5599,7 +5534,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B68" s="6">
         <f t="shared" si="29"/>
@@ -5692,7 +5627,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B69" s="6">
         <f t="shared" si="29"/>
@@ -5785,7 +5720,7 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B71" s="6">
         <v>2016</v>
@@ -5856,7 +5791,7 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B72" s="6">
         <f>B57</f>
@@ -5949,7 +5884,7 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B73" s="6">
         <f t="shared" ref="B73:W73" si="31">B58</f>
@@ -6042,7 +5977,7 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B74" s="6">
         <f t="shared" ref="B74:W74" si="32">B59</f>
@@ -6135,7 +6070,7 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B75" s="6">
         <f t="shared" ref="B75:W76" si="33">B60</f>
@@ -6228,7 +6163,7 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B76" s="6">
         <f t="shared" si="33"/>
@@ -6321,7 +6256,7 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B78" s="6">
         <v>2016</v>
@@ -6392,7 +6327,7 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B79" s="5">
         <v>0</v>
@@ -6484,7 +6419,7 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B80" s="5">
         <v>0</v>
@@ -6576,7 +6511,7 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B81" s="5">
         <v>0</v>
@@ -6668,7 +6603,7 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B82" s="5">
         <v>0</v>
@@ -6760,7 +6695,7 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B83" s="5">
         <v>0</v>
@@ -6852,7 +6787,7 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B86" s="6">
         <v>2016</v>
@@ -6923,7 +6858,7 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B87" s="5">
         <v>0</v>
@@ -7015,7 +6950,7 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B88" s="5">
         <v>0</v>
@@ -7107,7 +7042,7 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B89" s="5">
         <v>0</v>
@@ -7199,7 +7134,7 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B90" s="5">
         <v>0</v>
@@ -7291,7 +7226,7 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B91" s="5">
         <v>1</v>
@@ -7383,15 +7318,15 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B94" s="5">
         <f>SUM(C80:W80)</f>
@@ -7403,7 +7338,7 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B95" s="5">
         <f t="shared" ref="B95:B96" si="38">SUM(C81:W81)</f>
@@ -7415,7 +7350,7 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B96" s="5">
         <f t="shared" si="38"/>
@@ -7430,12 +7365,12 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B99">
         <v>2430</v>
@@ -7447,7 +7382,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B100">
         <v>2950</v>
@@ -7459,7 +7394,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B101">
         <v>3350</v>
@@ -7500,9 +7435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ162"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7516,7 +7449,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -7556,12 +7489,12 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -7671,20 +7604,20 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>85.074560000000005</v>
@@ -7794,7 +7727,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>38.255319999999998</v>
@@ -7904,7 +7837,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>44.918680000000002</v>
@@ -8014,7 +7947,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>35.443179999999998</v>
@@ -8124,7 +8057,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>33.06044</v>
@@ -8234,7 +8167,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>29.757449999999999</v>
@@ -8344,7 +8277,7 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B12">
         <v>36.493560000000002</v>
@@ -8454,7 +8387,7 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>107.7955</v>
@@ -8564,7 +8497,7 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>33.091320000000003</v>
@@ -8674,7 +8607,7 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>193.44475</v>
@@ -8784,7 +8717,7 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B16">
         <v>87.01397</v>
@@ -8894,12 +8827,12 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -9009,20 +8942,20 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B22">
         <v>254906.8125</v>
@@ -9132,7 +9065,7 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B23">
         <v>40939.320310000003</v>
@@ -9242,7 +9175,7 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B24">
         <v>191368.95313000001</v>
@@ -9352,7 +9285,7 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B25">
         <v>91503.195309999996</v>
@@ -9462,7 +9395,7 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>83635.914059999996</v>
@@ -9572,7 +9505,7 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B27">
         <v>76623.976559999996</v>
@@ -9682,7 +9615,7 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>202422.32813000001</v>
@@ -9792,7 +9725,7 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B29">
         <v>147293</v>
@@ -9902,7 +9835,7 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B30">
         <v>123271.57031</v>
@@ -10012,7 +9945,7 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B31">
         <v>27011.095700000002</v>
@@ -10122,7 +10055,7 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B32">
         <v>27011.095700000002</v>
@@ -10232,12 +10165,12 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>2016</v>
@@ -10347,20 +10280,20 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>5877.9599600000001</v>
@@ -10470,7 +10403,7 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>4651.5600599999998</v>
@@ -10580,7 +10513,7 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>8032.9199200000003</v>
@@ -10690,7 +10623,7 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>3591.5998500000001</v>
@@ -10800,7 +10733,7 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>3723</v>
@@ -10910,7 +10843,7 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>2715.6001000000001</v>
@@ -11020,7 +10953,7 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>6000.6000999999997</v>
@@ -11130,7 +11063,7 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>5676.4799800000001</v>
@@ -11240,7 +11173,7 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>7130.6401400000004</v>
@@ -11350,7 +11283,7 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>481.79998999999998</v>
@@ -11460,7 +11393,7 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>770.88</v>
@@ -11570,12 +11503,12 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>2016</v>
@@ -11685,7 +11618,7 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B52">
         <f t="shared" ref="B52:AJ52" si="0">B6-(B22/B38)</f>
@@ -11830,7 +11763,7 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B53">
         <f t="shared" ref="B53:AJ53" si="1">B7-(B23/B39)</f>
@@ -11975,7 +11908,7 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B54">
         <f t="shared" ref="B54:AJ54" si="2">B8-(B24/B40)</f>
@@ -12120,7 +12053,7 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B55">
         <f t="shared" ref="B55:AJ55" si="3">B9-(B25/B41)</f>
@@ -12265,7 +12198,7 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B56">
         <f t="shared" ref="B56:AJ56" si="4">B10-(B26/B42)</f>
@@ -12410,7 +12343,7 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B57">
         <f t="shared" ref="B57:AJ57" si="5">B11-(B27/B43)</f>
@@ -12555,7 +12488,7 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <f t="shared" ref="B58:AJ58" si="6">B12-(B28/B44)</f>
@@ -12700,7 +12633,7 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B59">
         <f t="shared" ref="B59:AJ59" si="7">B13-(B29/B45)</f>
@@ -12845,7 +12778,7 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B60">
         <f t="shared" ref="B60:AJ60" si="8">B14-(B30/B46)</f>
@@ -12990,7 +12923,7 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B61">
         <f t="shared" ref="B61:AJ61" si="9">B15-(B31/B47)</f>
@@ -13135,7 +13068,7 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B62">
         <f t="shared" ref="B62:AJ62" si="10">B16-(B32/B48)</f>
@@ -13280,7 +13213,7 @@
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -13320,24 +13253,24 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -13345,7 +13278,7 @@
         <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C67">
         <v>2917</v>
@@ -13359,7 +13292,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C68">
         <v>3727</v>
@@ -13373,7 +13306,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C69">
         <v>6492</v>
@@ -13390,7 +13323,7 @@
         <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C70">
         <v>912</v>
@@ -13404,7 +13337,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C71">
         <v>1017</v>
@@ -13418,7 +13351,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C72">
         <v>2072</v>
@@ -13435,7 +13368,7 @@
         <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C73">
         <v>968</v>
@@ -13449,7 +13382,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C74">
         <v>671</v>
@@ -13463,7 +13396,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C75">
         <v>6978</v>
@@ -13480,7 +13413,7 @@
         <v>24</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C76">
         <v>5366</v>
@@ -13494,7 +13427,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C77">
         <v>1477</v>
@@ -13508,7 +13441,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C78">
         <v>1744</v>
@@ -13525,7 +13458,7 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C79">
         <v>3659</v>
@@ -13542,7 +13475,7 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C80">
         <v>2448</v>
@@ -13556,7 +13489,7 @@
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C81">
         <v>8271</v>
@@ -13573,7 +13506,7 @@
         <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C82">
         <v>2651</v>
@@ -13590,7 +13523,7 @@
         <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C83" s="12">
         <v>1980</v>
@@ -13604,7 +13537,7 @@
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C84">
         <v>6154</v>
@@ -13621,7 +13554,7 @@
         <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C85">
         <v>4052</v>
@@ -13638,7 +13571,7 @@
         <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C86" s="12">
         <v>3279</v>
@@ -13652,22 +13585,22 @@
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B92">
         <v>2016</v>
@@ -13777,20 +13710,20 @@
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B93" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B95" s="13">
         <v>2.0380500000000001</v>
@@ -13900,7 +13833,7 @@
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B96" s="13">
         <v>3.3650000000000002</v>
@@ -14010,7 +13943,7 @@
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B97" s="13">
         <v>0.72799999999999998</v>
@@ -14120,7 +14053,7 @@
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B98" s="13">
         <v>0</v>
@@ -14230,7 +14163,7 @@
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B99" s="13">
         <v>0</v>
@@ -14340,7 +14273,7 @@
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B100" s="13">
         <v>0</v>
@@ -14450,7 +14383,7 @@
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B101" s="13">
         <v>0</v>
@@ -14560,7 +14493,7 @@
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B102" s="13">
         <v>4</v>
@@ -14670,7 +14603,7 @@
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B103" s="13">
         <v>0</v>
@@ -14780,7 +14713,7 @@
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B104" s="13">
         <v>11.24</v>
@@ -14890,7 +14823,7 @@
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B105" s="13">
         <v>3.3650000000000002</v>
@@ -15000,12 +14933,12 @@
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B108">
         <v>2016</v>
@@ -15115,20 +15048,20 @@
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B111">
         <v>10428000</v>
@@ -15238,7 +15171,7 @@
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B112">
         <v>7658000</v>
@@ -15348,7 +15281,7 @@
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B113">
         <v>10459000</v>
@@ -15458,7 +15391,7 @@
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -15568,7 +15501,7 @@
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -15678,7 +15611,7 @@
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -15788,7 +15721,7 @@
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -15898,7 +15831,7 @@
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B118">
         <v>14500000</v>
@@ -16008,7 +15941,7 @@
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -16118,7 +16051,7 @@
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B120">
         <v>10814000</v>
@@ -16228,7 +16161,7 @@
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B121">
         <v>10387000</v>
@@ -16338,25 +16271,25 @@
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B126">
         <v>0.61</v>
@@ -16466,7 +16399,7 @@
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B127">
         <v>0.48299999999999998</v>
@@ -16576,7 +16509,7 @@
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B128">
         <v>0.91700000000000004</v>
@@ -16686,7 +16619,7 @@
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B129">
         <v>0.373</v>
@@ -16796,7 +16729,7 @@
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B130">
         <v>0.34</v>
@@ -16906,7 +16839,7 @@
     </row>
     <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B131">
         <v>0.25900000000000001</v>
@@ -17016,7 +16949,7 @@
     </row>
     <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B132">
         <v>0.19800000000000001</v>
@@ -17126,7 +17059,7 @@
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B133">
         <v>0.58899999999999997</v>
@@ -17236,7 +17169,7 @@
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B134">
         <v>0.74</v>
@@ -17346,7 +17279,7 @@
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B135">
         <v>0.05</v>
@@ -17456,7 +17389,7 @@
     </row>
     <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B136">
         <v>0.08</v>
@@ -17566,12 +17499,12 @@
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B139" s="11">
         <f>E67*1000/(8760*B126)+D67+B95*B111/10^6</f>
@@ -17580,7 +17513,7 @@
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B140" s="11">
         <f>E70*1000/(8760*B127)+D70+B96*B112/10^6</f>
@@ -17589,7 +17522,7 @@
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B141" s="11">
         <f>E76*1000/(8760*B128)+D76+B97*B113/10^6</f>
@@ -17598,7 +17531,7 @@
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B142" s="11">
         <f>E82*1000/(8760*B129)+D82+B98*B114/10^6</f>
@@ -17607,7 +17540,7 @@
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B143" s="11">
         <f>E83*1000/(8760*B130)+D83+B99*B115/10^6</f>
@@ -17616,7 +17549,7 @@
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B144" s="11">
         <f>E86*1000/(8760*B131)+D86+B100*B116/10^6</f>
@@ -17625,7 +17558,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B145" s="11">
         <f>E85*1000/(8760*B132)+D85+B101*B117/10^6</f>
@@ -17634,7 +17567,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B146" s="11">
         <f>E79*1000/(8760*B133)+D79+B102*B118/10^6</f>
@@ -17643,7 +17576,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B147" s="11">
         <f>E80*1000/(8760*B134)+D80+B103*B119/10^6</f>
@@ -17652,7 +17585,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B148" s="11">
         <f>E73*1000/(8760*B135)+D73+B104*B120/10^6</f>
@@ -17661,7 +17594,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B149" s="11">
         <f>E73*1000/(8760*B136)+D73+B105*B121/10^6</f>
@@ -17670,12 +17603,12 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B152" s="14">
         <f>B139/$B$139</f>
@@ -17684,7 +17617,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B153" s="14">
         <f t="shared" ref="B153:B162" si="11">B140/$B$139</f>
@@ -17693,7 +17626,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B154" s="14">
         <f t="shared" si="11"/>
@@ -17702,7 +17635,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B155" s="14">
         <f t="shared" si="11"/>
@@ -17711,7 +17644,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B156" s="14">
         <f t="shared" si="11"/>
@@ -17720,7 +17653,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B157" s="14">
         <f t="shared" si="11"/>
@@ -17729,7 +17662,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B158" s="14">
         <f t="shared" si="11"/>
@@ -17738,7 +17671,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B159" s="14">
         <f t="shared" si="11"/>
@@ -17747,7 +17680,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B160" s="14">
         <f t="shared" si="11"/>
@@ -17756,7 +17689,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B161" s="14">
         <f t="shared" si="11"/>
@@ -17765,7 +17698,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B162" s="14">
         <f t="shared" si="11"/>
@@ -17782,11 +17715,9 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="A1:B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17800,7 +17731,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="B2" s="6">
         <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B152</f>
@@ -17836,7 +17767,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="B6" s="6">
         <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B156</f>
@@ -17893,6 +17824,24 @@
       </c>
       <c r="B12" s="9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="6">
+        <f>B2</f>
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="6">
+        <f>B6</f>
+        <v>1224.0003173559803</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
+++ b/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\ARpUIiRC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="21075" windowHeight="9030"/>
   </bookViews>
@@ -12,12 +17,12 @@
     <sheet name="Weighting" sheetId="8" r:id="rId3"/>
     <sheet name="ARpUIiRC" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="157">
   <si>
     <t>ARpUIiRC Annual Retirement per Unit Increase in Relative Cost</t>
   </si>
@@ -497,11 +502,23 @@
   <si>
     <t>hard coal</t>
   </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Currency Conversion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -659,7 +676,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -694,7 +711,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -903,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1082,16 +1099,21 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>1.07</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1314,35 +1336,35 @@
         <v>44</v>
       </c>
       <c r="B9" s="6">
-        <f>B2*About!$A$42</f>
+        <f>B2*About!$A$43</f>
         <v>0</v>
       </c>
       <c r="C9" s="6">
-        <f>C2*About!$A$42</f>
+        <f>C2*About!$A$43</f>
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <f>D2*About!$A$42</f>
+        <f>D2*About!$A$43</f>
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <f>E2*About!$A$42</f>
+        <f>E2*About!$A$43</f>
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <f>F2*About!$A$42</f>
+        <f>F2*About!$A$43</f>
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <f>G2*About!$A$42</f>
+        <f>G2*About!$A$43</f>
         <v>0</v>
       </c>
       <c r="H9" s="6">
-        <f>H2*About!$A$42</f>
+        <f>H2*About!$A$43</f>
         <v>0</v>
       </c>
       <c r="I9" s="6">
-        <f>I2*About!$A$42</f>
+        <f>I2*About!$A$43</f>
         <v>0</v>
       </c>
     </row>
@@ -1351,35 +1373,35 @@
         <v>45</v>
       </c>
       <c r="B10" s="6">
-        <f>B3*About!$A$42</f>
+        <f>B3*About!$A$43</f>
         <v>11.770000000000001</v>
       </c>
       <c r="C10" s="6">
-        <f>C3*About!$A$42</f>
+        <f>C3*About!$A$43</f>
         <v>11.770000000000001</v>
       </c>
       <c r="D10" s="6">
-        <f>D3*About!$A$42</f>
+        <f>D3*About!$A$43</f>
         <v>13.91</v>
       </c>
       <c r="E10" s="6">
-        <f>E3*About!$A$42</f>
+        <f>E3*About!$A$43</f>
         <v>16.05</v>
       </c>
       <c r="F10" s="6">
-        <f>F3*About!$A$42</f>
+        <f>F3*About!$A$43</f>
         <v>19.260000000000002</v>
       </c>
       <c r="G10" s="6">
-        <f>G3*About!$A$42</f>
+        <f>G3*About!$A$43</f>
         <v>21.400000000000002</v>
       </c>
       <c r="H10" s="6">
-        <f>H3*About!$A$42</f>
+        <f>H3*About!$A$43</f>
         <v>24.610000000000003</v>
       </c>
       <c r="I10" s="6">
-        <f>I3*About!$A$42</f>
+        <f>I3*About!$A$43</f>
         <v>26.75</v>
       </c>
     </row>
@@ -1388,35 +1410,35 @@
         <v>46</v>
       </c>
       <c r="B11" s="6">
-        <f>B4*About!$A$42</f>
+        <f>B4*About!$A$43</f>
         <v>38.520000000000003</v>
       </c>
       <c r="C11" s="6">
-        <f>C4*About!$A$42</f>
+        <f>C4*About!$A$43</f>
         <v>42.800000000000004</v>
       </c>
       <c r="D11" s="6">
-        <f>D4*About!$A$42</f>
+        <f>D4*About!$A$43</f>
         <v>48.150000000000006</v>
       </c>
       <c r="E11" s="6">
-        <f>E4*About!$A$42</f>
+        <f>E4*About!$A$43</f>
         <v>52.43</v>
       </c>
       <c r="F11" s="6">
-        <f>F4*About!$A$42</f>
+        <f>F4*About!$A$43</f>
         <v>56.71</v>
       </c>
       <c r="G11" s="6">
-        <f>G4*About!$A$42</f>
+        <f>G4*About!$A$43</f>
         <v>62.06</v>
       </c>
       <c r="H11" s="6">
-        <f>H4*About!$A$42</f>
+        <f>H4*About!$A$43</f>
         <v>66.34</v>
       </c>
       <c r="I11" s="6">
-        <f>I4*About!$A$42</f>
+        <f>I4*About!$A$43</f>
         <v>71.69</v>
       </c>
     </row>
@@ -1425,35 +1447,35 @@
         <v>47</v>
       </c>
       <c r="B12" s="6">
-        <f>B5*About!$A$42</f>
+        <f>B5*About!$A$43</f>
         <v>57.78</v>
       </c>
       <c r="C12" s="6">
-        <f>C5*About!$A$42</f>
+        <f>C5*About!$A$43</f>
         <v>65.27000000000001</v>
       </c>
       <c r="D12" s="6">
-        <f>D5*About!$A$42</f>
+        <f>D5*About!$A$43</f>
         <v>70.62</v>
       </c>
       <c r="E12" s="6">
-        <f>E5*About!$A$42</f>
+        <f>E5*About!$A$43</f>
         <v>75.97</v>
       </c>
       <c r="F12" s="6">
-        <f>F5*About!$A$42</f>
+        <f>F5*About!$A$43</f>
         <v>81.320000000000007</v>
       </c>
       <c r="G12" s="6">
-        <f>G5*About!$A$42</f>
+        <f>G5*About!$A$43</f>
         <v>87.740000000000009</v>
       </c>
       <c r="H12" s="6">
-        <f>H5*About!$A$42</f>
+        <f>H5*About!$A$43</f>
         <v>92.02000000000001</v>
       </c>
       <c r="I12" s="6">
-        <f>I5*About!$A$42</f>
+        <f>I5*About!$A$43</f>
         <v>98.440000000000012</v>
       </c>
     </row>
@@ -1462,35 +1484,35 @@
         <v>48</v>
       </c>
       <c r="B13" s="6">
-        <f>B6*About!$A$42</f>
+        <f>B6*About!$A$43</f>
         <v>89.88000000000001</v>
       </c>
       <c r="C13" s="6">
-        <f>C6*About!$A$42</f>
+        <f>C6*About!$A$43</f>
         <v>129.47</v>
       </c>
       <c r="D13" s="6">
-        <f>D6*About!$A$42</f>
+        <f>D6*About!$A$43</f>
         <v>144.45000000000002</v>
       </c>
       <c r="E13" s="6">
-        <f>E6*About!$A$42</f>
+        <f>E6*About!$A$43</f>
         <v>159.43</v>
       </c>
       <c r="F13" s="6">
-        <f>F6*About!$A$42</f>
+        <f>F6*About!$A$43</f>
         <v>176.55</v>
       </c>
       <c r="G13" s="6">
-        <f>G6*About!$A$42</f>
+        <f>G6*About!$A$43</f>
         <v>192.60000000000002</v>
       </c>
       <c r="H13" s="6">
-        <f>H6*About!$A$42</f>
+        <f>H6*About!$A$43</f>
         <v>206.51000000000002</v>
       </c>
       <c r="I13" s="6">
-        <f>I6*About!$A$42</f>
+        <f>I6*About!$A$43</f>
         <v>221.49</v>
       </c>
     </row>
@@ -7435,7 +7457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ162"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17715,7 +17737,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17844,6 +17866,33 @@
         <v>1224.0003173559803</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="6">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="6">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="6">
+        <f>B9</f>
+        <v>7721.1288241930006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
+++ b/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\ARpUIiRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72A4D27-31B9-46EA-9276-94DDCD36B977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5816E75E-9918-4142-B974-3CD66F692743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13565,15 +13565,6 @@
     <row r="2841" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2598:AG2598"/>
-    <mergeCell ref="B2719:AG2719"/>
-    <mergeCell ref="B2837:AG2837"/>
-    <mergeCell ref="B1945:AG1945"/>
-    <mergeCell ref="B2031:AG2031"/>
-    <mergeCell ref="B2153:AG2153"/>
-    <mergeCell ref="B2317:AG2317"/>
-    <mergeCell ref="B2419:AG2419"/>
-    <mergeCell ref="B2509:AG2509"/>
     <mergeCell ref="B1698:AG1698"/>
     <mergeCell ref="B87:AG87"/>
     <mergeCell ref="B112:AG112"/>
@@ -13586,6 +13577,15 @@
     <mergeCell ref="B1390:AG1390"/>
     <mergeCell ref="B1502:AG1502"/>
     <mergeCell ref="B1604:AG1604"/>
+    <mergeCell ref="B2598:AG2598"/>
+    <mergeCell ref="B2719:AG2719"/>
+    <mergeCell ref="B2837:AG2837"/>
+    <mergeCell ref="B1945:AG1945"/>
+    <mergeCell ref="B2031:AG2031"/>
+    <mergeCell ref="B2153:AG2153"/>
+    <mergeCell ref="B2317:AG2317"/>
+    <mergeCell ref="B2419:AG2419"/>
+    <mergeCell ref="B2509:AG2509"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24996,8 +24996,8 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25051,8 +25051,7 @@
         <v>47</v>
       </c>
       <c r="B6" s="4">
-        <f>$B$2*Weighting!B107</f>
-        <v>3028.7818497951525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -25060,8 +25059,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="4">
-        <f>$B$2*Weighting!B108</f>
-        <v>3865.5382849918251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -25121,8 +25119,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="4">
-        <f>$B$2*Weighting!B115</f>
-        <v>5256.8659353766534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">

--- a/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
+++ b/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\ARpUIiRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\ARpUIiRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5816E75E-9918-4142-B974-3CD66F692743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2307D161-7B9A-4FE3-BB0C-54137BD8E7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30630" yWindow="690" windowWidth="23445" windowHeight="14865" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="294">
   <si>
     <t>ARpUIiRC Annual Retirement per Unit Increase in Relative Cost</t>
   </si>
@@ -940,6 +940,12 @@
   </si>
   <si>
     <t>Table 3 for Reference and High Oil and Gas Supply cases (fuel prices) and Table 9 for High Oil and Gas Supply case capacity</t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1132,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1190,6 +1196,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="8" applyFont="1">
@@ -4314,18 +4321,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4338,30 +4343,30 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3">
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>61</v>
       </c>
@@ -4371,212 +4376,212 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>58</v>
       </c>
@@ -4595,14 +4600,14 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="31" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="46.7265625" style="31" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="31"/>
+    <col min="1" max="1" width="21.42578125" style="31" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" style="31" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="18" t="s">
         <v>221</v>
       </c>
@@ -4697,8 +4702,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="32" t="s">
         <v>93</v>
       </c>
@@ -4709,7 +4714,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="32" t="s">
         <v>95</v>
       </c>
@@ -4722,7 +4727,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="32" t="s">
         <v>96</v>
       </c>
@@ -4733,7 +4738,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="32" t="s">
         <v>98</v>
       </c>
@@ -4744,7 +4749,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>100</v>
       </c>
@@ -4755,7 +4760,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>103</v>
       </c>
@@ -4763,7 +4768,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4799,7 +4804,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
         <v>106</v>
       </c>
@@ -4897,18 +4902,18 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>110</v>
       </c>
@@ -5009,7 +5014,7 @@
         <v>-3.3602E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>112</v>
       </c>
@@ -5110,7 +5115,7 @@
         <v>-1.8082000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>114</v>
       </c>
@@ -5211,7 +5216,7 @@
         <v>2.3193999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>116</v>
       </c>
@@ -5312,7 +5317,7 @@
         <v>3.1248999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>118</v>
       </c>
@@ -5413,7 +5418,7 @@
         <v>-2.1610000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>120</v>
       </c>
@@ -5514,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>122</v>
       </c>
@@ -5615,7 +5620,7 @@
         <v>6.2059000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>124</v>
       </c>
@@ -5716,7 +5721,7 @@
         <v>4.9370000000000004E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>126</v>
       </c>
@@ -5817,7 +5822,7 @@
         <v>2.7647999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>128</v>
       </c>
@@ -5918,7 +5923,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>131</v>
       </c>
@@ -6019,12 +6024,12 @@
         <v>1.5970999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>134</v>
       </c>
@@ -6125,7 +6130,7 @@
         <v>-5.385E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>136</v>
       </c>
@@ -6226,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>138</v>
       </c>
@@ -6327,7 +6332,7 @@
         <v>-2.9E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>139</v>
       </c>
@@ -6428,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>140</v>
       </c>
@@ -6529,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>141</v>
       </c>
@@ -6630,12 +6635,12 @@
         <v>-5.3499999999999999E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B36" s="25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>143</v>
       </c>
@@ -6736,7 +6741,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>144</v>
       </c>
@@ -6837,7 +6842,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>145</v>
       </c>
@@ -6938,7 +6943,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>146</v>
       </c>
@@ -7039,7 +7044,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>147</v>
       </c>
@@ -7140,7 +7145,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>149</v>
       </c>
@@ -7241,7 +7246,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>150</v>
       </c>
@@ -7342,7 +7347,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>151</v>
       </c>
@@ -7443,7 +7448,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>152</v>
       </c>
@@ -7544,7 +7549,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>153</v>
       </c>
@@ -7645,7 +7650,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>155</v>
       </c>
@@ -7746,12 +7751,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>157</v>
       </c>
@@ -7852,7 +7857,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>158</v>
       </c>
@@ -7953,7 +7958,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>159</v>
       </c>
@@ -8054,7 +8059,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>160</v>
       </c>
@@ -8155,7 +8160,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>161</v>
       </c>
@@ -8256,7 +8261,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>162</v>
       </c>
@@ -8357,7 +8362,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
         <v>163</v>
       </c>
@@ -8458,7 +8463,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
         <v>164</v>
       </c>
@@ -8559,7 +8564,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
         <v>165</v>
       </c>
@@ -8660,7 +8665,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>166</v>
       </c>
@@ -8761,7 +8766,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
         <v>167</v>
       </c>
@@ -8862,7 +8867,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>168</v>
       </c>
@@ -8963,13 +8968,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="25" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
         <v>171</v>
       </c>
@@ -9070,7 +9075,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>172</v>
       </c>
@@ -9171,7 +9176,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
         <v>173</v>
       </c>
@@ -9272,7 +9277,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>174</v>
       </c>
@@ -9373,7 +9378,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
         <v>175</v>
       </c>
@@ -9474,7 +9479,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>176</v>
       </c>
@@ -9575,7 +9580,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
         <v>177</v>
       </c>
@@ -9676,7 +9681,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
         <v>178</v>
       </c>
@@ -9777,7 +9782,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>179</v>
       </c>
@@ -9878,7 +9883,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>180</v>
       </c>
@@ -9979,7 +9984,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>181</v>
       </c>
@@ -10080,13 +10085,13 @@
         <v>1.5640999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
         <v>184</v>
       </c>
@@ -10187,7 +10192,7 @@
         <v>-5.0730000000000003E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>185</v>
       </c>
@@ -10288,7 +10293,7 @@
         <v>9.2999999999999997E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>187</v>
       </c>
@@ -10389,7 +10394,7 @@
         <v>1.5015000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
         <v>189</v>
       </c>
@@ -10490,7 +10495,7 @@
         <v>5.5900000000000004E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
         <v>191</v>
       </c>
@@ -10591,7 +10596,7 @@
         <v>4.7808000000000003E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>192</v>
       </c>
@@ -10692,7 +10697,7 @@
         <v>1.895E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
         <v>194</v>
       </c>
@@ -10793,8 +10798,8 @@
         <v>3.8952000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
         <v>195</v>
       </c>
@@ -10895,2674 +10900,2674 @@
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="39" t="s">
+    <row r="86" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="40"/>
-      <c r="N87" s="40"/>
-      <c r="O87" s="40"/>
-      <c r="P87" s="40"/>
-      <c r="Q87" s="40"/>
-      <c r="R87" s="40"/>
-      <c r="S87" s="40"/>
-      <c r="T87" s="40"/>
-      <c r="U87" s="40"/>
-      <c r="V87" s="40"/>
-      <c r="W87" s="40"/>
-      <c r="X87" s="40"/>
-      <c r="Y87" s="40"/>
-      <c r="Z87" s="40"/>
-      <c r="AA87" s="40"/>
-      <c r="AB87" s="40"/>
-      <c r="AC87" s="40"/>
-      <c r="AD87" s="40"/>
-      <c r="AE87" s="40"/>
-      <c r="AF87" s="40"/>
-      <c r="AG87" s="40"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="41"/>
+      <c r="S87" s="41"/>
+      <c r="T87" s="41"/>
+      <c r="U87" s="41"/>
+      <c r="V87" s="41"/>
+      <c r="W87" s="41"/>
+      <c r="X87" s="41"/>
+      <c r="Y87" s="41"/>
+      <c r="Z87" s="41"/>
+      <c r="AA87" s="41"/>
+      <c r="AB87" s="41"/>
+      <c r="AC87" s="41"/>
+      <c r="AD87" s="41"/>
+      <c r="AE87" s="41"/>
+      <c r="AF87" s="41"/>
+      <c r="AG87" s="41"/>
       <c r="AH87" s="33"/>
     </row>
-    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="34" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="34" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="34" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="34" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B92" s="34" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="34" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="34" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="34" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="34" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="34" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="34" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="99" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="34" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="34" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="101" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B101" s="34" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="102" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B102" s="34" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="103" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="34" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="104" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="34" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="34" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="106" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="34" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="34" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="34" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="109" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="34" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="110" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="34" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="34" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="112" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="38"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
-      <c r="E112" s="38"/>
-      <c r="F112" s="38"/>
-      <c r="G112" s="38"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="38"/>
-      <c r="J112" s="38"/>
-      <c r="K112" s="38"/>
-      <c r="L112" s="38"/>
-      <c r="M112" s="38"/>
-      <c r="N112" s="38"/>
-      <c r="O112" s="38"/>
-      <c r="P112" s="38"/>
-      <c r="Q112" s="38"/>
-      <c r="R112" s="38"/>
-      <c r="S112" s="38"/>
-      <c r="T112" s="38"/>
-      <c r="U112" s="38"/>
-      <c r="V112" s="38"/>
-      <c r="W112" s="38"/>
-      <c r="X112" s="38"/>
-      <c r="Y112" s="38"/>
-      <c r="Z112" s="38"/>
-      <c r="AA112" s="38"/>
-      <c r="AB112" s="38"/>
-      <c r="AC112" s="38"/>
-      <c r="AD112" s="38"/>
-      <c r="AE112" s="38"/>
-      <c r="AF112" s="38"/>
-      <c r="AG112" s="38"/>
-    </row>
-    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B308" s="38"/>
-      <c r="C308" s="38"/>
-      <c r="D308" s="38"/>
-      <c r="E308" s="38"/>
-      <c r="F308" s="38"/>
-      <c r="G308" s="38"/>
-      <c r="H308" s="38"/>
-      <c r="I308" s="38"/>
-      <c r="J308" s="38"/>
-      <c r="K308" s="38"/>
-      <c r="L308" s="38"/>
-      <c r="M308" s="38"/>
-      <c r="N308" s="38"/>
-      <c r="O308" s="38"/>
-      <c r="P308" s="38"/>
-      <c r="Q308" s="38"/>
-      <c r="R308" s="38"/>
-      <c r="S308" s="38"/>
-      <c r="T308" s="38"/>
-      <c r="U308" s="38"/>
-      <c r="V308" s="38"/>
-      <c r="W308" s="38"/>
-      <c r="X308" s="38"/>
-      <c r="Y308" s="38"/>
-      <c r="Z308" s="38"/>
-      <c r="AA308" s="38"/>
-      <c r="AB308" s="38"/>
-      <c r="AC308" s="38"/>
-      <c r="AD308" s="38"/>
-      <c r="AE308" s="38"/>
-      <c r="AF308" s="38"/>
-      <c r="AG308" s="38"/>
-    </row>
-    <row r="309" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B511" s="38"/>
-      <c r="C511" s="38"/>
-      <c r="D511" s="38"/>
-      <c r="E511" s="38"/>
-      <c r="F511" s="38"/>
-      <c r="G511" s="38"/>
-      <c r="H511" s="38"/>
-      <c r="I511" s="38"/>
-      <c r="J511" s="38"/>
-      <c r="K511" s="38"/>
-      <c r="L511" s="38"/>
-      <c r="M511" s="38"/>
-      <c r="N511" s="38"/>
-      <c r="O511" s="38"/>
-      <c r="P511" s="38"/>
-      <c r="Q511" s="38"/>
-      <c r="R511" s="38"/>
-      <c r="S511" s="38"/>
-      <c r="T511" s="38"/>
-      <c r="U511" s="38"/>
-      <c r="V511" s="38"/>
-      <c r="W511" s="38"/>
-      <c r="X511" s="38"/>
-      <c r="Y511" s="38"/>
-      <c r="Z511" s="38"/>
-      <c r="AA511" s="38"/>
-      <c r="AB511" s="38"/>
-      <c r="AC511" s="38"/>
-      <c r="AD511" s="38"/>
-      <c r="AE511" s="38"/>
-      <c r="AF511" s="38"/>
-      <c r="AG511" s="38"/>
-    </row>
-    <row r="512" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B712" s="38"/>
-      <c r="C712" s="38"/>
-      <c r="D712" s="38"/>
-      <c r="E712" s="38"/>
-      <c r="F712" s="38"/>
-      <c r="G712" s="38"/>
-      <c r="H712" s="38"/>
-      <c r="I712" s="38"/>
-      <c r="J712" s="38"/>
-      <c r="K712" s="38"/>
-      <c r="L712" s="38"/>
-      <c r="M712" s="38"/>
-      <c r="N712" s="38"/>
-      <c r="O712" s="38"/>
-      <c r="P712" s="38"/>
-      <c r="Q712" s="38"/>
-      <c r="R712" s="38"/>
-      <c r="S712" s="38"/>
-      <c r="T712" s="38"/>
-      <c r="U712" s="38"/>
-      <c r="V712" s="38"/>
-      <c r="W712" s="38"/>
-      <c r="X712" s="38"/>
-      <c r="Y712" s="38"/>
-      <c r="Z712" s="38"/>
-      <c r="AA712" s="38"/>
-      <c r="AB712" s="38"/>
-      <c r="AC712" s="38"/>
-      <c r="AD712" s="38"/>
-      <c r="AE712" s="38"/>
-      <c r="AF712" s="38"/>
-      <c r="AG712" s="38"/>
-    </row>
-    <row r="713" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B887" s="38"/>
-      <c r="C887" s="38"/>
-      <c r="D887" s="38"/>
-      <c r="E887" s="38"/>
-      <c r="F887" s="38"/>
-      <c r="G887" s="38"/>
-      <c r="H887" s="38"/>
-      <c r="I887" s="38"/>
-      <c r="J887" s="38"/>
-      <c r="K887" s="38"/>
-      <c r="L887" s="38"/>
-      <c r="M887" s="38"/>
-      <c r="N887" s="38"/>
-      <c r="O887" s="38"/>
-      <c r="P887" s="38"/>
-      <c r="Q887" s="38"/>
-      <c r="R887" s="38"/>
-      <c r="S887" s="38"/>
-      <c r="T887" s="38"/>
-      <c r="U887" s="38"/>
-      <c r="V887" s="38"/>
-      <c r="W887" s="38"/>
-      <c r="X887" s="38"/>
-      <c r="Y887" s="38"/>
-      <c r="Z887" s="38"/>
-      <c r="AA887" s="38"/>
-      <c r="AB887" s="38"/>
-      <c r="AC887" s="38"/>
-      <c r="AD887" s="38"/>
-      <c r="AE887" s="38"/>
-      <c r="AF887" s="38"/>
-      <c r="AG887" s="38"/>
-    </row>
-    <row r="888" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1001" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1002" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1003" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1004" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1005" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1006" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1007" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1008" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1009" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1010" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1011" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1012" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1013" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1016" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1017" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1018" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1019" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1020" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1021" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1022" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1023" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1024" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1025" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1026" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1027" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1028" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1029" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1030" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1031" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1032" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1033" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1034" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1035" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1037" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1038" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1039" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1040" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1041" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1042" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1043" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1044" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1045" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1046" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1047" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1048" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1049" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1050" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1051" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1052" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1053" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1054" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1055" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1056" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1057" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1058" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1059" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1060" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1061" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1062" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1063" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1064" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1066" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1067" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1068" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1069" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1070" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1071" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1072" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1073" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1074" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1075" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1076" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1077" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1078" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1079" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1080" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1081" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1082" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1083" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1084" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1085" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1086" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1087" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1088" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1089" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1090" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1091" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1092" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1093" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1094" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1096" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1097" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1098" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1099" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1100" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1100" s="38"/>
-      <c r="C1100" s="38"/>
-      <c r="D1100" s="38"/>
-      <c r="E1100" s="38"/>
-      <c r="F1100" s="38"/>
-      <c r="G1100" s="38"/>
-      <c r="H1100" s="38"/>
-      <c r="I1100" s="38"/>
-      <c r="J1100" s="38"/>
-      <c r="K1100" s="38"/>
-      <c r="L1100" s="38"/>
-      <c r="M1100" s="38"/>
-      <c r="N1100" s="38"/>
-      <c r="O1100" s="38"/>
-      <c r="P1100" s="38"/>
-      <c r="Q1100" s="38"/>
-      <c r="R1100" s="38"/>
-      <c r="S1100" s="38"/>
-      <c r="T1100" s="38"/>
-      <c r="U1100" s="38"/>
-      <c r="V1100" s="38"/>
-      <c r="W1100" s="38"/>
-      <c r="X1100" s="38"/>
-      <c r="Y1100" s="38"/>
-      <c r="Z1100" s="38"/>
-      <c r="AA1100" s="38"/>
-      <c r="AB1100" s="38"/>
-      <c r="AC1100" s="38"/>
-      <c r="AD1100" s="38"/>
-      <c r="AE1100" s="38"/>
-      <c r="AF1100" s="38"/>
-      <c r="AG1100" s="38"/>
-    </row>
-    <row r="1101" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1102" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1103" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1104" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1105" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1106" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1107" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1108" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1109" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1110" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1111" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1150" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1151" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1152" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1153" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1154" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1155" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1156" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1157" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1158" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1159" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1160" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1161" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1162" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1163" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1164" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1165" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1166" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1167" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1168" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1170" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1171" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1172" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1173" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1174" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1175" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1176" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1177" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1178" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1179" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1180" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1181" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1182" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1183" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1184" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1185" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1186" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1187" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1188" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1189" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1190" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1191" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1192" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1194" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1195" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1196" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1197" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1198" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1199" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1200" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1201" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1202" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1203" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1204" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1205" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1206" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1207" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1208" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1209" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1211" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1212" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1213" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1214" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1215" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1216" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1217" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1218" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1219" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1220" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1221" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1222" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1223" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1224" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1225" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1226" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1227" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1227" s="38"/>
-      <c r="C1227" s="38"/>
-      <c r="D1227" s="38"/>
-      <c r="E1227" s="38"/>
-      <c r="F1227" s="38"/>
-      <c r="G1227" s="38"/>
-      <c r="H1227" s="38"/>
-      <c r="I1227" s="38"/>
-      <c r="J1227" s="38"/>
-      <c r="K1227" s="38"/>
-      <c r="L1227" s="38"/>
-      <c r="M1227" s="38"/>
-      <c r="N1227" s="38"/>
-      <c r="O1227" s="38"/>
-      <c r="P1227" s="38"/>
-      <c r="Q1227" s="38"/>
-      <c r="R1227" s="38"/>
-      <c r="S1227" s="38"/>
-      <c r="T1227" s="38"/>
-      <c r="U1227" s="38"/>
-      <c r="V1227" s="38"/>
-      <c r="W1227" s="38"/>
-      <c r="X1227" s="38"/>
-      <c r="Y1227" s="38"/>
-      <c r="Z1227" s="38"/>
-      <c r="AA1227" s="38"/>
-      <c r="AB1227" s="38"/>
-      <c r="AC1227" s="38"/>
-      <c r="AD1227" s="38"/>
-      <c r="AE1227" s="38"/>
-      <c r="AF1227" s="38"/>
-      <c r="AG1227" s="38"/>
-    </row>
-    <row r="1228" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1229" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1230" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1231" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1232" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1233" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1234" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1235" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1236" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1237" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1300" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1301" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1302" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1303" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1304" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1305" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1307" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1308" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1309" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1310" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1311" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1312" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1313" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1314" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1315" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1316" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1317" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1318" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1319" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1320" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1321" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1322" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1323" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1324" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1325" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1327" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1329" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1330" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1331" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1332" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1333" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1334" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1335" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1336" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1337" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1338" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1340" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1341" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1342" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1343" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1344" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1345" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1346" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1347" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1348" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1350" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1352" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1353" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1354" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1355" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1356" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1357" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1358" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1359" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1361" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1362" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1363" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1364" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1365" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1366" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1367" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1368" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1369" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1370" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1371" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1372" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1373" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1375" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1376" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1377" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1378" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1379" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1380" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1381" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1382" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1383" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1385" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1386" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1387" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1388" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1389" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1390" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1390" s="38"/>
-      <c r="C1390" s="38"/>
-      <c r="D1390" s="38"/>
-      <c r="E1390" s="38"/>
-      <c r="F1390" s="38"/>
-      <c r="G1390" s="38"/>
-      <c r="H1390" s="38"/>
-      <c r="I1390" s="38"/>
-      <c r="J1390" s="38"/>
-      <c r="K1390" s="38"/>
-      <c r="L1390" s="38"/>
-      <c r="M1390" s="38"/>
-      <c r="N1390" s="38"/>
-      <c r="O1390" s="38"/>
-      <c r="P1390" s="38"/>
-      <c r="Q1390" s="38"/>
-      <c r="R1390" s="38"/>
-      <c r="S1390" s="38"/>
-      <c r="T1390" s="38"/>
-      <c r="U1390" s="38"/>
-      <c r="V1390" s="38"/>
-      <c r="W1390" s="38"/>
-      <c r="X1390" s="38"/>
-      <c r="Y1390" s="38"/>
-      <c r="Z1390" s="38"/>
-      <c r="AA1390" s="38"/>
-      <c r="AB1390" s="38"/>
-      <c r="AC1390" s="38"/>
-      <c r="AD1390" s="38"/>
-      <c r="AE1390" s="38"/>
-      <c r="AF1390" s="38"/>
-      <c r="AG1390" s="38"/>
-    </row>
-    <row r="1391" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1392" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1393" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1394" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1395" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1396" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1397" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1398" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1399" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1400" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1401" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1402" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1403" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1404" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1405" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1406" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1407" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1408" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1409" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1410" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1425" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1426" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1427" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1428" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1429" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1430" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1431" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1432" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1433" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1434" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1435" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1436" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1437" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1438" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1439" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1440" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1441" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1442" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1443" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1444" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1445" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1446" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1447" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1448" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1449" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1451" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1452" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1453" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1454" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1455" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1456" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1457" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1458" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1459" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1460" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1461" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1462" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1463" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1464" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1465" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1466" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1467" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1468" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1469" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1470" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1471" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1472" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1473" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1474" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1475" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1477" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1478" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1479" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1480" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1481" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1482" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1483" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1484" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1485" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1486" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1487" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1489" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1491" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1492" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1493" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1494" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1495" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1496" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1497" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1498" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1500" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1501" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1502" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1502" s="38"/>
-      <c r="C1502" s="38"/>
-      <c r="D1502" s="38"/>
-      <c r="E1502" s="38"/>
-      <c r="F1502" s="38"/>
-      <c r="G1502" s="38"/>
-      <c r="H1502" s="38"/>
-      <c r="I1502" s="38"/>
-      <c r="J1502" s="38"/>
-      <c r="K1502" s="38"/>
-      <c r="L1502" s="38"/>
-      <c r="M1502" s="38"/>
-      <c r="N1502" s="38"/>
-      <c r="O1502" s="38"/>
-      <c r="P1502" s="38"/>
-      <c r="Q1502" s="38"/>
-      <c r="R1502" s="38"/>
-      <c r="S1502" s="38"/>
-      <c r="T1502" s="38"/>
-      <c r="U1502" s="38"/>
-      <c r="V1502" s="38"/>
-      <c r="W1502" s="38"/>
-      <c r="X1502" s="38"/>
-      <c r="Y1502" s="38"/>
-      <c r="Z1502" s="38"/>
-      <c r="AA1502" s="38"/>
-      <c r="AB1502" s="38"/>
-      <c r="AC1502" s="38"/>
-      <c r="AD1502" s="38"/>
-      <c r="AE1502" s="38"/>
-      <c r="AF1502" s="38"/>
-      <c r="AG1502" s="38"/>
-    </row>
-    <row r="1503" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1504" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1505" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1506" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1507" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1508" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1509" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1510" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1511" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1512" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1513" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1514" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1515" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1516" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1517" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1518" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1519" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1520" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1521" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1522" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1523" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1524" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1525" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1526" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1575" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1576" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1577" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1578" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1579" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1580" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1582" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1583" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1584" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1585" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1587" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1588" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1589" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1590" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1592" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1594" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1595" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1596" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1597" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1599" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1600" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1601" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1602" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1603" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1604" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1604" s="38"/>
-      <c r="C1604" s="38"/>
-      <c r="D1604" s="38"/>
-      <c r="E1604" s="38"/>
-      <c r="F1604" s="38"/>
-      <c r="G1604" s="38"/>
-      <c r="H1604" s="38"/>
-      <c r="I1604" s="38"/>
-      <c r="J1604" s="38"/>
-      <c r="K1604" s="38"/>
-      <c r="L1604" s="38"/>
-      <c r="M1604" s="38"/>
-      <c r="N1604" s="38"/>
-      <c r="O1604" s="38"/>
-      <c r="P1604" s="38"/>
-      <c r="Q1604" s="38"/>
-      <c r="R1604" s="38"/>
-      <c r="S1604" s="38"/>
-      <c r="T1604" s="38"/>
-      <c r="U1604" s="38"/>
-      <c r="V1604" s="38"/>
-      <c r="W1604" s="38"/>
-      <c r="X1604" s="38"/>
-      <c r="Y1604" s="38"/>
-      <c r="Z1604" s="38"/>
-      <c r="AA1604" s="38"/>
-      <c r="AB1604" s="38"/>
-      <c r="AC1604" s="38"/>
-      <c r="AD1604" s="38"/>
-      <c r="AE1604" s="38"/>
-      <c r="AF1604" s="38"/>
-      <c r="AG1604" s="38"/>
-    </row>
-    <row r="1605" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1606" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1607" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1608" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1609" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1610" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1625" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1626" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1627" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1628" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1629" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1630" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1631" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1632" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1633" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1634" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1635" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1636" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1637" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1638" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1640" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1641" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1642" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1643" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1644" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1645" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1646" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1647" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1648" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1649" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1650" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1651" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1652" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1653" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1654" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1655" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1656" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1657" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1658" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1659" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1660" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1661" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1662" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1663" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1665" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1668" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1669" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1670" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1671" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1672" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1673" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1674" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1675" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1676" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1677" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1678" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1679" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1680" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1681" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1682" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1683" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1684" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1686" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1688" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1689" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1690" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1691" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1692" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1693" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1694" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1695" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1697" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1698" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1698" s="38"/>
-      <c r="C1698" s="38"/>
-      <c r="D1698" s="38"/>
-      <c r="E1698" s="38"/>
-      <c r="F1698" s="38"/>
-      <c r="G1698" s="38"/>
-      <c r="H1698" s="38"/>
-      <c r="I1698" s="38"/>
-      <c r="J1698" s="38"/>
-      <c r="K1698" s="38"/>
-      <c r="L1698" s="38"/>
-      <c r="M1698" s="38"/>
-      <c r="N1698" s="38"/>
-      <c r="O1698" s="38"/>
-      <c r="P1698" s="38"/>
-      <c r="Q1698" s="38"/>
-      <c r="R1698" s="38"/>
-      <c r="S1698" s="38"/>
-      <c r="T1698" s="38"/>
-      <c r="U1698" s="38"/>
-      <c r="V1698" s="38"/>
-      <c r="W1698" s="38"/>
-      <c r="X1698" s="38"/>
-      <c r="Y1698" s="38"/>
-      <c r="Z1698" s="38"/>
-      <c r="AA1698" s="38"/>
-      <c r="AB1698" s="38"/>
-      <c r="AC1698" s="38"/>
-      <c r="AD1698" s="38"/>
-      <c r="AE1698" s="38"/>
-      <c r="AF1698" s="38"/>
-      <c r="AG1698" s="38"/>
-    </row>
-    <row r="1699" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1700" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1701" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1702" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1703" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1704" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1705" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1706" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1707" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1708" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1709" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1710" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1711" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1712" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1713" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1714" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1715" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1716" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1717" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1718" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1719" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1720" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1721" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1722" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1723" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1724" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1725" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1726" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1850" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1851" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1852" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1853" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1854" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1855" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1856" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1857" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1858" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1859" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1861" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1863" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1864" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1865" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1867" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1868" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1869" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1870" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1872" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1873" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1874" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1875" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1876" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1878" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1879" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1880" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1881" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1882" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1883" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1884" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1885" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1886" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1888" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1889" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1890" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1891" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1893" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1894" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1895" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1896" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1897" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1898" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1899" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1900" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1903" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1904" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1905" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1906" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1907" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1909" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1910" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1911" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1912" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1913" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1915" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1916" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1917" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1919" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1920" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1921" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1922" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1924" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1925" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1926" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1927" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1928" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1929" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1930" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1931" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1933" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1934" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1935" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1937" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1938" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1939" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1940" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1941" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1942" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1943" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1944" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1945" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1945" s="38"/>
-      <c r="C1945" s="38"/>
-      <c r="D1945" s="38"/>
-      <c r="E1945" s="38"/>
-      <c r="F1945" s="38"/>
-      <c r="G1945" s="38"/>
-      <c r="H1945" s="38"/>
-      <c r="I1945" s="38"/>
-      <c r="J1945" s="38"/>
-      <c r="K1945" s="38"/>
-      <c r="L1945" s="38"/>
-      <c r="M1945" s="38"/>
-      <c r="N1945" s="38"/>
-      <c r="O1945" s="38"/>
-      <c r="P1945" s="38"/>
-      <c r="Q1945" s="38"/>
-      <c r="R1945" s="38"/>
-      <c r="S1945" s="38"/>
-      <c r="T1945" s="38"/>
-      <c r="U1945" s="38"/>
-      <c r="V1945" s="38"/>
-      <c r="W1945" s="38"/>
-      <c r="X1945" s="38"/>
-      <c r="Y1945" s="38"/>
-      <c r="Z1945" s="38"/>
-      <c r="AA1945" s="38"/>
-      <c r="AB1945" s="38"/>
-      <c r="AC1945" s="38"/>
-      <c r="AD1945" s="38"/>
-      <c r="AE1945" s="38"/>
-      <c r="AF1945" s="38"/>
-      <c r="AG1945" s="38"/>
-    </row>
-    <row r="1946" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1947" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1948" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1949" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1950" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1951" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1952" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1953" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1954" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1955" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1975" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1976" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1977" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1978" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1979" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1980" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1981" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1982" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1984" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1985" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1986" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1988" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1990" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1991" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1992" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1993" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1994" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1995" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1996" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1997" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1998" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1999" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2000" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2001" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2002" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2004" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2006" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2008" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2009" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2011" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2012" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2013" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2014" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2015" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2016" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2017" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2018" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2019" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2020" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2022" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2023" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2024" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2025" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2026" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2027" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2028" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2029" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2030" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2031" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2031" s="38"/>
-      <c r="C2031" s="38"/>
-      <c r="D2031" s="38"/>
-      <c r="E2031" s="38"/>
-      <c r="F2031" s="38"/>
-      <c r="G2031" s="38"/>
-      <c r="H2031" s="38"/>
-      <c r="I2031" s="38"/>
-      <c r="J2031" s="38"/>
-      <c r="K2031" s="38"/>
-      <c r="L2031" s="38"/>
-      <c r="M2031" s="38"/>
-      <c r="N2031" s="38"/>
-      <c r="O2031" s="38"/>
-      <c r="P2031" s="38"/>
-      <c r="Q2031" s="38"/>
-      <c r="R2031" s="38"/>
-      <c r="S2031" s="38"/>
-      <c r="T2031" s="38"/>
-      <c r="U2031" s="38"/>
-      <c r="V2031" s="38"/>
-      <c r="W2031" s="38"/>
-      <c r="X2031" s="38"/>
-      <c r="Y2031" s="38"/>
-      <c r="Z2031" s="38"/>
-      <c r="AA2031" s="38"/>
-      <c r="AB2031" s="38"/>
-      <c r="AC2031" s="38"/>
-      <c r="AD2031" s="38"/>
-      <c r="AE2031" s="38"/>
-      <c r="AF2031" s="38"/>
-      <c r="AG2031" s="38"/>
-    </row>
-    <row r="2032" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2033" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2034" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2035" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2036" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2037" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2038" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2039" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2040" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2041" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2042" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2043" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2044" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2045" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2046" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2047" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2048" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2049" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2050" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2051" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2052" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2053" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2100" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2101" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2102" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2103" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2104" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2105" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2107" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2108" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2110" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2111" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2112" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2113" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2114" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2115" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2116" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2117" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2118" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2119" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2120" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2121" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2122" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2124" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2125" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2126" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2127" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2128" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2129" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2131" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2133" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2134" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2136" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2137" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2138" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2139" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2140" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2141" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2142" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2143" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2144" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2145" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2146" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2148" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2151" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2152" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2153" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2153" s="38"/>
-      <c r="C2153" s="38"/>
-      <c r="D2153" s="38"/>
-      <c r="E2153" s="38"/>
-      <c r="F2153" s="38"/>
-      <c r="G2153" s="38"/>
-      <c r="H2153" s="38"/>
-      <c r="I2153" s="38"/>
-      <c r="J2153" s="38"/>
-      <c r="K2153" s="38"/>
-      <c r="L2153" s="38"/>
-      <c r="M2153" s="38"/>
-      <c r="N2153" s="38"/>
-      <c r="O2153" s="38"/>
-      <c r="P2153" s="38"/>
-      <c r="Q2153" s="38"/>
-      <c r="R2153" s="38"/>
-      <c r="S2153" s="38"/>
-      <c r="T2153" s="38"/>
-      <c r="U2153" s="38"/>
-      <c r="V2153" s="38"/>
-      <c r="W2153" s="38"/>
-      <c r="X2153" s="38"/>
-      <c r="Y2153" s="38"/>
-      <c r="Z2153" s="38"/>
-      <c r="AA2153" s="38"/>
-      <c r="AB2153" s="38"/>
-      <c r="AC2153" s="38"/>
-      <c r="AD2153" s="38"/>
-      <c r="AE2153" s="38"/>
-      <c r="AF2153" s="38"/>
-      <c r="AG2153" s="38"/>
-    </row>
-    <row r="2154" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2155" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2156" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2157" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2158" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2159" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2160" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2161" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2162" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2250" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2251" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2252" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2253" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2254" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2255" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2256" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2257" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2258" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2260" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2261" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2262" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2264" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2266" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2267" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2268" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2269" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2271" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2273" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2274" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2275" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2276" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2277" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2278" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2279" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2280" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2282" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2284" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2285" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2286" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2288" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2289" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2290" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2291" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2292" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2293" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2294" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2295" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2296" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2297" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2298" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2301" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2302" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2303" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2305" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2306" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2307" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2308" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2309" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2310" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2311" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2312" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2313" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2314" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2315" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2316" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2317" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2317" s="38"/>
-      <c r="C2317" s="38"/>
-      <c r="D2317" s="38"/>
-      <c r="E2317" s="38"/>
-      <c r="F2317" s="38"/>
-      <c r="G2317" s="38"/>
-      <c r="H2317" s="38"/>
-      <c r="I2317" s="38"/>
-      <c r="J2317" s="38"/>
-      <c r="K2317" s="38"/>
-      <c r="L2317" s="38"/>
-      <c r="M2317" s="38"/>
-      <c r="N2317" s="38"/>
-      <c r="O2317" s="38"/>
-      <c r="P2317" s="38"/>
-      <c r="Q2317" s="38"/>
-      <c r="R2317" s="38"/>
-      <c r="S2317" s="38"/>
-      <c r="T2317" s="38"/>
-      <c r="U2317" s="38"/>
-      <c r="V2317" s="38"/>
-      <c r="W2317" s="38"/>
-      <c r="X2317" s="38"/>
-      <c r="Y2317" s="38"/>
-      <c r="Z2317" s="38"/>
-      <c r="AA2317" s="38"/>
-      <c r="AB2317" s="38"/>
-      <c r="AC2317" s="38"/>
-      <c r="AD2317" s="38"/>
-      <c r="AE2317" s="38"/>
-      <c r="AF2317" s="38"/>
-      <c r="AG2317" s="38"/>
-    </row>
-    <row r="2318" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2319" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2320" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2321" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2322" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2323" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2324" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2325" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2326" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2327" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2328" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2329" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2330" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2331" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2332" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2333" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2334" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2350" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2351" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2352" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2353" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2354" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2355" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2356" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2357" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2358" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2359" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2360" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2361" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2362" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2363" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2364" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2365" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2367" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2368" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2369" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2370" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2371" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2372" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2373" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2374" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2375" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2376" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2377" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2378" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2380" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2381" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2382" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2383" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2384" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2385" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2386" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2387" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2388" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2390" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2391" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2392" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2393" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2394" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2395" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2396" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2397" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2400" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2401" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2402" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2403" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2404" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2405" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2406" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2407" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2408" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2410" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2411" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2412" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2413" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2414" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2415" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2416" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2417" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2418" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2419" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2419" s="38"/>
-      <c r="C2419" s="38"/>
-      <c r="D2419" s="38"/>
-      <c r="E2419" s="38"/>
-      <c r="F2419" s="38"/>
-      <c r="G2419" s="38"/>
-      <c r="H2419" s="38"/>
-      <c r="I2419" s="38"/>
-      <c r="J2419" s="38"/>
-      <c r="K2419" s="38"/>
-      <c r="L2419" s="38"/>
-      <c r="M2419" s="38"/>
-      <c r="N2419" s="38"/>
-      <c r="O2419" s="38"/>
-      <c r="P2419" s="38"/>
-      <c r="Q2419" s="38"/>
-      <c r="R2419" s="38"/>
-      <c r="S2419" s="38"/>
-      <c r="T2419" s="38"/>
-      <c r="U2419" s="38"/>
-      <c r="V2419" s="38"/>
-      <c r="W2419" s="38"/>
-      <c r="X2419" s="38"/>
-      <c r="Y2419" s="38"/>
-      <c r="Z2419" s="38"/>
-      <c r="AA2419" s="38"/>
-      <c r="AB2419" s="38"/>
-      <c r="AC2419" s="38"/>
-      <c r="AD2419" s="38"/>
-      <c r="AE2419" s="38"/>
-      <c r="AF2419" s="38"/>
-      <c r="AG2419" s="38"/>
-    </row>
-    <row r="2420" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2421" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2422" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2423" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2424" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2425" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2426" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2427" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2428" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2429" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2430" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2431" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2432" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2433" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2434" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2435" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2436" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2437" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2450" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2451" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2452" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2453" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2454" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2455" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2457" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2459" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2461" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2462" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2463" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2464" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2465" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2467" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2468" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2469" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2470" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2471" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2472" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2473" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2475" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2476" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2477" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2478" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2479" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2480" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2481" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2482" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2483" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2484" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2486" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2488" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2489" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2490" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2491" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2492" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2495" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2496" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2498" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2499" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2500" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2501" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2502" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2504" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2505" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2506" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2507" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2508" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2509" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2509" s="38"/>
-      <c r="C2509" s="38"/>
-      <c r="D2509" s="38"/>
-      <c r="E2509" s="38"/>
-      <c r="F2509" s="38"/>
-      <c r="G2509" s="38"/>
-      <c r="H2509" s="38"/>
-      <c r="I2509" s="38"/>
-      <c r="J2509" s="38"/>
-      <c r="K2509" s="38"/>
-      <c r="L2509" s="38"/>
-      <c r="M2509" s="38"/>
-      <c r="N2509" s="38"/>
-      <c r="O2509" s="38"/>
-      <c r="P2509" s="38"/>
-      <c r="Q2509" s="38"/>
-      <c r="R2509" s="38"/>
-      <c r="S2509" s="38"/>
-      <c r="T2509" s="38"/>
-      <c r="U2509" s="38"/>
-      <c r="V2509" s="38"/>
-      <c r="W2509" s="38"/>
-      <c r="X2509" s="38"/>
-      <c r="Y2509" s="38"/>
-      <c r="Z2509" s="38"/>
-      <c r="AA2509" s="38"/>
-      <c r="AB2509" s="38"/>
-      <c r="AC2509" s="38"/>
-      <c r="AD2509" s="38"/>
-      <c r="AE2509" s="38"/>
-      <c r="AF2509" s="38"/>
-      <c r="AG2509" s="38"/>
-    </row>
-    <row r="2510" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2511" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2512" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2513" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2514" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2515" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2516" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2517" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2518" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2519" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2520" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2521" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2522" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2523" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2524" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2525" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2526" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2527" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2528" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2529" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2550" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2551" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2552" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2553" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2554" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2555" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2556" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2557" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2558" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2559" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2561" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2562" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2563" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2564" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2565" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2566" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2568" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2569" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2570" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2571" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2572" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2573" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2575" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2576" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2577" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2578" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2579" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2581" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2582" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2583" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2584" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2585" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2586" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2588" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2589" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2590" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2591" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2592" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2593" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2595" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2596" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2597" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2598" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2598" s="38"/>
-      <c r="C2598" s="38"/>
-      <c r="D2598" s="38"/>
-      <c r="E2598" s="38"/>
-      <c r="F2598" s="38"/>
-      <c r="G2598" s="38"/>
-      <c r="H2598" s="38"/>
-      <c r="I2598" s="38"/>
-      <c r="J2598" s="38"/>
-      <c r="K2598" s="38"/>
-      <c r="L2598" s="38"/>
-      <c r="M2598" s="38"/>
-      <c r="N2598" s="38"/>
-      <c r="O2598" s="38"/>
-      <c r="P2598" s="38"/>
-      <c r="Q2598" s="38"/>
-      <c r="R2598" s="38"/>
-      <c r="S2598" s="38"/>
-      <c r="T2598" s="38"/>
-      <c r="U2598" s="38"/>
-      <c r="V2598" s="38"/>
-      <c r="W2598" s="38"/>
-      <c r="X2598" s="38"/>
-      <c r="Y2598" s="38"/>
-      <c r="Z2598" s="38"/>
-      <c r="AA2598" s="38"/>
-      <c r="AB2598" s="38"/>
-      <c r="AC2598" s="38"/>
-      <c r="AD2598" s="38"/>
-      <c r="AE2598" s="38"/>
-      <c r="AF2598" s="38"/>
-      <c r="AG2598" s="38"/>
-    </row>
-    <row r="2599" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2600" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2601" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2602" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2603" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2604" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2605" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2606" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2607" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2608" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2609" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2610" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2611" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2612" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2613" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2614" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2615" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2625" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2626" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2627" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2628" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2629" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2630" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2631" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2632" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2633" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2634" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2635" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2636" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2637" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2638" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2639" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2640" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2641" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2642" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2643" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2644" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2645" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2646" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2648" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2649" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2650" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2651" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2652" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2653" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2654" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2655" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2656" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2657" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2658" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2659" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2662" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2663" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2664" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2665" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2666" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2667" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2668" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2669" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2670" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2671" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2672" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2673" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2674" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2675" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2676" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2677" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2678" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2679" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2680" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2681" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2682" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2683" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2684" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2685" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2686" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2687" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2689" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2690" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2691" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2692" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2693" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2694" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2695" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2696" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2697" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2698" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2699" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2700" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2701" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2702" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2703" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2704" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2707" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2708" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2709" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2710" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2711" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2712" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2713" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2714" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2715" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2716" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2717" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2718" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2719" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2719" s="38"/>
-      <c r="C2719" s="38"/>
-      <c r="D2719" s="38"/>
-      <c r="E2719" s="38"/>
-      <c r="F2719" s="38"/>
-      <c r="G2719" s="38"/>
-      <c r="H2719" s="38"/>
-      <c r="I2719" s="38"/>
-      <c r="J2719" s="38"/>
-      <c r="K2719" s="38"/>
-      <c r="L2719" s="38"/>
-      <c r="M2719" s="38"/>
-      <c r="N2719" s="38"/>
-      <c r="O2719" s="38"/>
-      <c r="P2719" s="38"/>
-      <c r="Q2719" s="38"/>
-      <c r="R2719" s="38"/>
-      <c r="S2719" s="38"/>
-      <c r="T2719" s="38"/>
-      <c r="U2719" s="38"/>
-      <c r="V2719" s="38"/>
-      <c r="W2719" s="38"/>
-      <c r="X2719" s="38"/>
-      <c r="Y2719" s="38"/>
-      <c r="Z2719" s="38"/>
-      <c r="AA2719" s="38"/>
-      <c r="AB2719" s="38"/>
-      <c r="AC2719" s="38"/>
-      <c r="AD2719" s="38"/>
-      <c r="AE2719" s="38"/>
-      <c r="AF2719" s="38"/>
-      <c r="AG2719" s="38"/>
-    </row>
-    <row r="2720" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2721" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2722" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2723" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2724" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2725" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2726" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2727" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2728" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2729" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2730" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2731" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2732" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2733" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2734" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2735" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2736" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2737" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2738" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2739" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2740" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2741" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2742" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2743" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2775" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2776" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2777" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2778" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2779" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2780" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2781" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2782" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2783" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2784" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2785" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2786" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2788" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2789" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2790" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2791" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2793" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2794" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2795" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2796" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2797" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2798" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2799" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2800" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2801" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2802" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2804" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2805" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2806" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2807" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2809" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2810" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2811" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2812" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2813" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2814" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2815" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2816" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2818" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2819" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2820" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2821" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2822" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2823" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2825" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2826" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2827" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2828" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2831" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2832" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2833" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2834" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2835" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2836" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2837" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2837" s="38"/>
-      <c r="C2837" s="38"/>
-      <c r="D2837" s="38"/>
-      <c r="E2837" s="38"/>
-      <c r="F2837" s="38"/>
-      <c r="G2837" s="38"/>
-      <c r="H2837" s="38"/>
-      <c r="I2837" s="38"/>
-      <c r="J2837" s="38"/>
-      <c r="K2837" s="38"/>
-      <c r="L2837" s="38"/>
-      <c r="M2837" s="38"/>
-      <c r="N2837" s="38"/>
-      <c r="O2837" s="38"/>
-      <c r="P2837" s="38"/>
-      <c r="Q2837" s="38"/>
-      <c r="R2837" s="38"/>
-      <c r="S2837" s="38"/>
-      <c r="T2837" s="38"/>
-      <c r="U2837" s="38"/>
-      <c r="V2837" s="38"/>
-      <c r="W2837" s="38"/>
-      <c r="X2837" s="38"/>
-      <c r="Y2837" s="38"/>
-      <c r="Z2837" s="38"/>
-      <c r="AA2837" s="38"/>
-      <c r="AB2837" s="38"/>
-      <c r="AC2837" s="38"/>
-      <c r="AD2837" s="38"/>
-      <c r="AE2837" s="38"/>
-      <c r="AF2837" s="38"/>
-      <c r="AG2837" s="38"/>
-    </row>
-    <row r="2838" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2839" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2840" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2841" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="39"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="39"/>
+      <c r="J112" s="39"/>
+      <c r="K112" s="39"/>
+      <c r="L112" s="39"/>
+      <c r="M112" s="39"/>
+      <c r="N112" s="39"/>
+      <c r="O112" s="39"/>
+      <c r="P112" s="39"/>
+      <c r="Q112" s="39"/>
+      <c r="R112" s="39"/>
+      <c r="S112" s="39"/>
+      <c r="T112" s="39"/>
+      <c r="U112" s="39"/>
+      <c r="V112" s="39"/>
+      <c r="W112" s="39"/>
+      <c r="X112" s="39"/>
+      <c r="Y112" s="39"/>
+      <c r="Z112" s="39"/>
+      <c r="AA112" s="39"/>
+      <c r="AB112" s="39"/>
+      <c r="AC112" s="39"/>
+      <c r="AD112" s="39"/>
+      <c r="AE112" s="39"/>
+      <c r="AF112" s="39"/>
+      <c r="AG112" s="39"/>
+    </row>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="39"/>
+      <c r="C308" s="39"/>
+      <c r="D308" s="39"/>
+      <c r="E308" s="39"/>
+      <c r="F308" s="39"/>
+      <c r="G308" s="39"/>
+      <c r="H308" s="39"/>
+      <c r="I308" s="39"/>
+      <c r="J308" s="39"/>
+      <c r="K308" s="39"/>
+      <c r="L308" s="39"/>
+      <c r="M308" s="39"/>
+      <c r="N308" s="39"/>
+      <c r="O308" s="39"/>
+      <c r="P308" s="39"/>
+      <c r="Q308" s="39"/>
+      <c r="R308" s="39"/>
+      <c r="S308" s="39"/>
+      <c r="T308" s="39"/>
+      <c r="U308" s="39"/>
+      <c r="V308" s="39"/>
+      <c r="W308" s="39"/>
+      <c r="X308" s="39"/>
+      <c r="Y308" s="39"/>
+      <c r="Z308" s="39"/>
+      <c r="AA308" s="39"/>
+      <c r="AB308" s="39"/>
+      <c r="AC308" s="39"/>
+      <c r="AD308" s="39"/>
+      <c r="AE308" s="39"/>
+      <c r="AF308" s="39"/>
+      <c r="AG308" s="39"/>
+    </row>
+    <row r="309" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B511" s="39"/>
+      <c r="C511" s="39"/>
+      <c r="D511" s="39"/>
+      <c r="E511" s="39"/>
+      <c r="F511" s="39"/>
+      <c r="G511" s="39"/>
+      <c r="H511" s="39"/>
+      <c r="I511" s="39"/>
+      <c r="J511" s="39"/>
+      <c r="K511" s="39"/>
+      <c r="L511" s="39"/>
+      <c r="M511" s="39"/>
+      <c r="N511" s="39"/>
+      <c r="O511" s="39"/>
+      <c r="P511" s="39"/>
+      <c r="Q511" s="39"/>
+      <c r="R511" s="39"/>
+      <c r="S511" s="39"/>
+      <c r="T511" s="39"/>
+      <c r="U511" s="39"/>
+      <c r="V511" s="39"/>
+      <c r="W511" s="39"/>
+      <c r="X511" s="39"/>
+      <c r="Y511" s="39"/>
+      <c r="Z511" s="39"/>
+      <c r="AA511" s="39"/>
+      <c r="AB511" s="39"/>
+      <c r="AC511" s="39"/>
+      <c r="AD511" s="39"/>
+      <c r="AE511" s="39"/>
+      <c r="AF511" s="39"/>
+      <c r="AG511" s="39"/>
+    </row>
+    <row r="512" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B712" s="39"/>
+      <c r="C712" s="39"/>
+      <c r="D712" s="39"/>
+      <c r="E712" s="39"/>
+      <c r="F712" s="39"/>
+      <c r="G712" s="39"/>
+      <c r="H712" s="39"/>
+      <c r="I712" s="39"/>
+      <c r="J712" s="39"/>
+      <c r="K712" s="39"/>
+      <c r="L712" s="39"/>
+      <c r="M712" s="39"/>
+      <c r="N712" s="39"/>
+      <c r="O712" s="39"/>
+      <c r="P712" s="39"/>
+      <c r="Q712" s="39"/>
+      <c r="R712" s="39"/>
+      <c r="S712" s="39"/>
+      <c r="T712" s="39"/>
+      <c r="U712" s="39"/>
+      <c r="V712" s="39"/>
+      <c r="W712" s="39"/>
+      <c r="X712" s="39"/>
+      <c r="Y712" s="39"/>
+      <c r="Z712" s="39"/>
+      <c r="AA712" s="39"/>
+      <c r="AB712" s="39"/>
+      <c r="AC712" s="39"/>
+      <c r="AD712" s="39"/>
+      <c r="AE712" s="39"/>
+      <c r="AF712" s="39"/>
+      <c r="AG712" s="39"/>
+    </row>
+    <row r="713" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B887" s="39"/>
+      <c r="C887" s="39"/>
+      <c r="D887" s="39"/>
+      <c r="E887" s="39"/>
+      <c r="F887" s="39"/>
+      <c r="G887" s="39"/>
+      <c r="H887" s="39"/>
+      <c r="I887" s="39"/>
+      <c r="J887" s="39"/>
+      <c r="K887" s="39"/>
+      <c r="L887" s="39"/>
+      <c r="M887" s="39"/>
+      <c r="N887" s="39"/>
+      <c r="O887" s="39"/>
+      <c r="P887" s="39"/>
+      <c r="Q887" s="39"/>
+      <c r="R887" s="39"/>
+      <c r="S887" s="39"/>
+      <c r="T887" s="39"/>
+      <c r="U887" s="39"/>
+      <c r="V887" s="39"/>
+      <c r="W887" s="39"/>
+      <c r="X887" s="39"/>
+      <c r="Y887" s="39"/>
+      <c r="Z887" s="39"/>
+      <c r="AA887" s="39"/>
+      <c r="AB887" s="39"/>
+      <c r="AC887" s="39"/>
+      <c r="AD887" s="39"/>
+      <c r="AE887" s="39"/>
+      <c r="AF887" s="39"/>
+      <c r="AG887" s="39"/>
+    </row>
+    <row r="888" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1016" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1017" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1018" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1019" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1020" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1021" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1022" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1023" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1024" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1025" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1026" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1027" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1028" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1029" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1030" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1031" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1032" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1033" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1034" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1035" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1037" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1038" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1039" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1040" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1041" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1042" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1043" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1044" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1045" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1046" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1047" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1049" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1050" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1051" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1052" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1053" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1054" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1055" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1056" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1057" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1058" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1059" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1060" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1061" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1062" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1063" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1064" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1066" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1067" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1068" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1069" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1070" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1071" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1072" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1073" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1074" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1075" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1076" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1077" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1078" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1079" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1080" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1081" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1082" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1083" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1084" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1085" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1086" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1087" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1088" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1089" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1090" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1091" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1092" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1093" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1094" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1096" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1097" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1098" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1099" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1100" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1100" s="39"/>
+      <c r="C1100" s="39"/>
+      <c r="D1100" s="39"/>
+      <c r="E1100" s="39"/>
+      <c r="F1100" s="39"/>
+      <c r="G1100" s="39"/>
+      <c r="H1100" s="39"/>
+      <c r="I1100" s="39"/>
+      <c r="J1100" s="39"/>
+      <c r="K1100" s="39"/>
+      <c r="L1100" s="39"/>
+      <c r="M1100" s="39"/>
+      <c r="N1100" s="39"/>
+      <c r="O1100" s="39"/>
+      <c r="P1100" s="39"/>
+      <c r="Q1100" s="39"/>
+      <c r="R1100" s="39"/>
+      <c r="S1100" s="39"/>
+      <c r="T1100" s="39"/>
+      <c r="U1100" s="39"/>
+      <c r="V1100" s="39"/>
+      <c r="W1100" s="39"/>
+      <c r="X1100" s="39"/>
+      <c r="Y1100" s="39"/>
+      <c r="Z1100" s="39"/>
+      <c r="AA1100" s="39"/>
+      <c r="AB1100" s="39"/>
+      <c r="AC1100" s="39"/>
+      <c r="AD1100" s="39"/>
+      <c r="AE1100" s="39"/>
+      <c r="AF1100" s="39"/>
+      <c r="AG1100" s="39"/>
+    </row>
+    <row r="1101" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1102" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1103" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1104" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1105" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1106" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1107" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1108" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1109" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1110" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1111" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1150" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1151" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1152" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1153" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1154" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1155" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1156" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1157" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1158" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1159" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1160" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1161" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1162" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1163" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1164" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1165" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1166" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1167" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1168" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1170" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1171" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1172" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1173" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1174" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1175" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1176" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1177" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1178" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1179" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1180" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1181" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1182" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1183" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1184" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1185" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1186" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1187" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1188" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1189" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1190" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1191" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1192" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1194" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1195" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1196" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1197" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1198" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1199" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1200" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1201" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1202" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1203" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1204" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1205" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1206" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1207" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1208" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1209" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1211" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1212" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1213" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1214" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1215" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1216" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1217" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1218" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1219" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1220" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1221" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1222" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1223" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1224" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1225" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1226" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1227" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1227" s="39"/>
+      <c r="C1227" s="39"/>
+      <c r="D1227" s="39"/>
+      <c r="E1227" s="39"/>
+      <c r="F1227" s="39"/>
+      <c r="G1227" s="39"/>
+      <c r="H1227" s="39"/>
+      <c r="I1227" s="39"/>
+      <c r="J1227" s="39"/>
+      <c r="K1227" s="39"/>
+      <c r="L1227" s="39"/>
+      <c r="M1227" s="39"/>
+      <c r="N1227" s="39"/>
+      <c r="O1227" s="39"/>
+      <c r="P1227" s="39"/>
+      <c r="Q1227" s="39"/>
+      <c r="R1227" s="39"/>
+      <c r="S1227" s="39"/>
+      <c r="T1227" s="39"/>
+      <c r="U1227" s="39"/>
+      <c r="V1227" s="39"/>
+      <c r="W1227" s="39"/>
+      <c r="X1227" s="39"/>
+      <c r="Y1227" s="39"/>
+      <c r="Z1227" s="39"/>
+      <c r="AA1227" s="39"/>
+      <c r="AB1227" s="39"/>
+      <c r="AC1227" s="39"/>
+      <c r="AD1227" s="39"/>
+      <c r="AE1227" s="39"/>
+      <c r="AF1227" s="39"/>
+      <c r="AG1227" s="39"/>
+    </row>
+    <row r="1228" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1229" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1230" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1231" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1232" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1233" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1234" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1235" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1236" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1237" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1300" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1301" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1302" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1303" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1304" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1305" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1307" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1308" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1309" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1310" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1311" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1312" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1313" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1314" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1315" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1316" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1317" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1318" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1319" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1320" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1321" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1322" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1323" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1324" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1325" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1327" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1329" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1330" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1331" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1332" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1333" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1334" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1335" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1336" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1337" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1338" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1340" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1341" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1342" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1343" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1344" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1345" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1346" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1347" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1348" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1350" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1352" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1353" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1354" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1355" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1356" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1357" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1358" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1359" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1361" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1362" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1363" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1364" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1365" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1366" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1367" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1368" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1369" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1370" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1371" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1372" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1373" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1375" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1376" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1377" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1378" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1379" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1380" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1381" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1382" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1383" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1385" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1386" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1387" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1388" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1389" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1390" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1390" s="39"/>
+      <c r="C1390" s="39"/>
+      <c r="D1390" s="39"/>
+      <c r="E1390" s="39"/>
+      <c r="F1390" s="39"/>
+      <c r="G1390" s="39"/>
+      <c r="H1390" s="39"/>
+      <c r="I1390" s="39"/>
+      <c r="J1390" s="39"/>
+      <c r="K1390" s="39"/>
+      <c r="L1390" s="39"/>
+      <c r="M1390" s="39"/>
+      <c r="N1390" s="39"/>
+      <c r="O1390" s="39"/>
+      <c r="P1390" s="39"/>
+      <c r="Q1390" s="39"/>
+      <c r="R1390" s="39"/>
+      <c r="S1390" s="39"/>
+      <c r="T1390" s="39"/>
+      <c r="U1390" s="39"/>
+      <c r="V1390" s="39"/>
+      <c r="W1390" s="39"/>
+      <c r="X1390" s="39"/>
+      <c r="Y1390" s="39"/>
+      <c r="Z1390" s="39"/>
+      <c r="AA1390" s="39"/>
+      <c r="AB1390" s="39"/>
+      <c r="AC1390" s="39"/>
+      <c r="AD1390" s="39"/>
+      <c r="AE1390" s="39"/>
+      <c r="AF1390" s="39"/>
+      <c r="AG1390" s="39"/>
+    </row>
+    <row r="1391" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1392" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1393" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1394" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1395" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1396" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1397" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1398" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1399" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1400" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1401" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1402" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1403" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1404" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1405" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1406" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1407" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1408" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1409" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1410" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1425" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1426" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1427" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1428" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1429" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1430" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1431" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1432" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1433" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1434" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1435" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1436" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1437" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1438" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1439" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1440" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1441" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1442" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1443" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1444" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1445" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1446" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1447" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1448" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1449" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1451" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1452" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1453" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1454" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1455" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1456" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1457" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1458" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1459" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1460" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1461" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1462" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1463" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1464" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1465" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1466" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1467" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1468" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1469" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1470" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1471" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1472" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1473" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1474" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1475" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1477" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1478" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1479" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1480" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1481" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1482" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1483" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1484" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1485" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1486" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1487" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1489" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1491" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1492" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1493" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1494" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1495" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1496" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1497" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1498" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1500" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1501" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1502" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1502" s="39"/>
+      <c r="C1502" s="39"/>
+      <c r="D1502" s="39"/>
+      <c r="E1502" s="39"/>
+      <c r="F1502" s="39"/>
+      <c r="G1502" s="39"/>
+      <c r="H1502" s="39"/>
+      <c r="I1502" s="39"/>
+      <c r="J1502" s="39"/>
+      <c r="K1502" s="39"/>
+      <c r="L1502" s="39"/>
+      <c r="M1502" s="39"/>
+      <c r="N1502" s="39"/>
+      <c r="O1502" s="39"/>
+      <c r="P1502" s="39"/>
+      <c r="Q1502" s="39"/>
+      <c r="R1502" s="39"/>
+      <c r="S1502" s="39"/>
+      <c r="T1502" s="39"/>
+      <c r="U1502" s="39"/>
+      <c r="V1502" s="39"/>
+      <c r="W1502" s="39"/>
+      <c r="X1502" s="39"/>
+      <c r="Y1502" s="39"/>
+      <c r="Z1502" s="39"/>
+      <c r="AA1502" s="39"/>
+      <c r="AB1502" s="39"/>
+      <c r="AC1502" s="39"/>
+      <c r="AD1502" s="39"/>
+      <c r="AE1502" s="39"/>
+      <c r="AF1502" s="39"/>
+      <c r="AG1502" s="39"/>
+    </row>
+    <row r="1503" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1504" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1505" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1506" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1507" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1508" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1509" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1510" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1511" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1512" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1513" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1514" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1515" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1516" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1517" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1518" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1519" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1520" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1521" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1522" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1523" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1524" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1525" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1526" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1575" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1576" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1577" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1578" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1579" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1580" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1582" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1583" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1584" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1585" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1587" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1588" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1589" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1590" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1592" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1594" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1595" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1596" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1597" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1599" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1600" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1601" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1602" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1603" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1604" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1604" s="39"/>
+      <c r="C1604" s="39"/>
+      <c r="D1604" s="39"/>
+      <c r="E1604" s="39"/>
+      <c r="F1604" s="39"/>
+      <c r="G1604" s="39"/>
+      <c r="H1604" s="39"/>
+      <c r="I1604" s="39"/>
+      <c r="J1604" s="39"/>
+      <c r="K1604" s="39"/>
+      <c r="L1604" s="39"/>
+      <c r="M1604" s="39"/>
+      <c r="N1604" s="39"/>
+      <c r="O1604" s="39"/>
+      <c r="P1604" s="39"/>
+      <c r="Q1604" s="39"/>
+      <c r="R1604" s="39"/>
+      <c r="S1604" s="39"/>
+      <c r="T1604" s="39"/>
+      <c r="U1604" s="39"/>
+      <c r="V1604" s="39"/>
+      <c r="W1604" s="39"/>
+      <c r="X1604" s="39"/>
+      <c r="Y1604" s="39"/>
+      <c r="Z1604" s="39"/>
+      <c r="AA1604" s="39"/>
+      <c r="AB1604" s="39"/>
+      <c r="AC1604" s="39"/>
+      <c r="AD1604" s="39"/>
+      <c r="AE1604" s="39"/>
+      <c r="AF1604" s="39"/>
+      <c r="AG1604" s="39"/>
+    </row>
+    <row r="1605" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1606" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1607" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1608" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1609" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1610" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1625" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1626" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1627" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1628" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1629" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1630" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1631" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1632" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1633" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1634" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1635" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1636" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1637" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1638" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1640" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1641" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1642" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1643" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1644" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1645" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1646" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1647" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1648" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1649" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1650" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1651" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1652" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1653" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1654" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1655" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1656" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1657" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1658" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1659" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1660" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1661" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1662" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1663" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1665" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1668" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1669" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1670" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1671" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1672" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1673" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1674" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1675" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1676" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1677" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1678" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1679" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1680" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1681" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1682" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1683" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1684" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1686" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1688" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1689" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1690" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1691" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1692" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1693" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1694" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1695" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1697" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1698" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1698" s="39"/>
+      <c r="C1698" s="39"/>
+      <c r="D1698" s="39"/>
+      <c r="E1698" s="39"/>
+      <c r="F1698" s="39"/>
+      <c r="G1698" s="39"/>
+      <c r="H1698" s="39"/>
+      <c r="I1698" s="39"/>
+      <c r="J1698" s="39"/>
+      <c r="K1698" s="39"/>
+      <c r="L1698" s="39"/>
+      <c r="M1698" s="39"/>
+      <c r="N1698" s="39"/>
+      <c r="O1698" s="39"/>
+      <c r="P1698" s="39"/>
+      <c r="Q1698" s="39"/>
+      <c r="R1698" s="39"/>
+      <c r="S1698" s="39"/>
+      <c r="T1698" s="39"/>
+      <c r="U1698" s="39"/>
+      <c r="V1698" s="39"/>
+      <c r="W1698" s="39"/>
+      <c r="X1698" s="39"/>
+      <c r="Y1698" s="39"/>
+      <c r="Z1698" s="39"/>
+      <c r="AA1698" s="39"/>
+      <c r="AB1698" s="39"/>
+      <c r="AC1698" s="39"/>
+      <c r="AD1698" s="39"/>
+      <c r="AE1698" s="39"/>
+      <c r="AF1698" s="39"/>
+      <c r="AG1698" s="39"/>
+    </row>
+    <row r="1699" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1700" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1701" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1702" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1703" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1704" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1705" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1706" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1707" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1708" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1709" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1710" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1711" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1712" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1713" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1714" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1715" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1716" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1717" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1718" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1719" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1720" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1721" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1722" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1723" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1724" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1725" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1726" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1850" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1851" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1852" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1853" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1854" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1855" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1856" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1857" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1858" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1859" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1861" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1863" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1864" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1865" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1867" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1868" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1869" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1870" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1872" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1873" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1874" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1875" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1876" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1878" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1879" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1880" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1881" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1882" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1883" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1884" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1885" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1886" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1888" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1889" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1890" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1891" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1893" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1894" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1895" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1896" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1897" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1898" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1899" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1900" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1903" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1904" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1905" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1906" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1907" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1909" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1910" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1911" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1912" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1913" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1915" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1916" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1917" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1919" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1920" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1921" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1922" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1924" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1925" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1926" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1927" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1928" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1929" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1930" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1931" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1933" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1934" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1935" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1937" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1938" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1939" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1940" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1941" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1942" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1943" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1944" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1945" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1945" s="39"/>
+      <c r="C1945" s="39"/>
+      <c r="D1945" s="39"/>
+      <c r="E1945" s="39"/>
+      <c r="F1945" s="39"/>
+      <c r="G1945" s="39"/>
+      <c r="H1945" s="39"/>
+      <c r="I1945" s="39"/>
+      <c r="J1945" s="39"/>
+      <c r="K1945" s="39"/>
+      <c r="L1945" s="39"/>
+      <c r="M1945" s="39"/>
+      <c r="N1945" s="39"/>
+      <c r="O1945" s="39"/>
+      <c r="P1945" s="39"/>
+      <c r="Q1945" s="39"/>
+      <c r="R1945" s="39"/>
+      <c r="S1945" s="39"/>
+      <c r="T1945" s="39"/>
+      <c r="U1945" s="39"/>
+      <c r="V1945" s="39"/>
+      <c r="W1945" s="39"/>
+      <c r="X1945" s="39"/>
+      <c r="Y1945" s="39"/>
+      <c r="Z1945" s="39"/>
+      <c r="AA1945" s="39"/>
+      <c r="AB1945" s="39"/>
+      <c r="AC1945" s="39"/>
+      <c r="AD1945" s="39"/>
+      <c r="AE1945" s="39"/>
+      <c r="AF1945" s="39"/>
+      <c r="AG1945" s="39"/>
+    </row>
+    <row r="1946" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1947" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1948" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1949" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1950" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1951" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1952" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1953" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1954" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1955" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1975" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1976" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1977" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1978" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1979" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1980" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1981" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1982" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1984" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1985" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1986" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1988" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1990" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1991" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1992" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1993" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1994" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1995" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1996" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1997" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1998" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1999" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2000" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2001" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2002" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2004" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2006" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2008" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2009" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2011" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2012" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2013" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2014" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2015" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2016" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2017" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2018" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2019" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2020" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2022" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2023" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2024" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2025" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2026" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2027" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2028" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2029" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2030" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2031" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2031" s="39"/>
+      <c r="C2031" s="39"/>
+      <c r="D2031" s="39"/>
+      <c r="E2031" s="39"/>
+      <c r="F2031" s="39"/>
+      <c r="G2031" s="39"/>
+      <c r="H2031" s="39"/>
+      <c r="I2031" s="39"/>
+      <c r="J2031" s="39"/>
+      <c r="K2031" s="39"/>
+      <c r="L2031" s="39"/>
+      <c r="M2031" s="39"/>
+      <c r="N2031" s="39"/>
+      <c r="O2031" s="39"/>
+      <c r="P2031" s="39"/>
+      <c r="Q2031" s="39"/>
+      <c r="R2031" s="39"/>
+      <c r="S2031" s="39"/>
+      <c r="T2031" s="39"/>
+      <c r="U2031" s="39"/>
+      <c r="V2031" s="39"/>
+      <c r="W2031" s="39"/>
+      <c r="X2031" s="39"/>
+      <c r="Y2031" s="39"/>
+      <c r="Z2031" s="39"/>
+      <c r="AA2031" s="39"/>
+      <c r="AB2031" s="39"/>
+      <c r="AC2031" s="39"/>
+      <c r="AD2031" s="39"/>
+      <c r="AE2031" s="39"/>
+      <c r="AF2031" s="39"/>
+      <c r="AG2031" s="39"/>
+    </row>
+    <row r="2032" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2033" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2034" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2035" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2036" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2037" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2038" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2039" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2040" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2041" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2042" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2043" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2044" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2045" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2046" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2047" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2048" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2049" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2050" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2051" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2052" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2053" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2100" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2101" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2102" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2103" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2104" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2105" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2107" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2108" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2110" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2111" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2112" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2115" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2116" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2117" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2118" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2119" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2120" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2121" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2122" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2124" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2125" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2126" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2127" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2128" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2129" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2131" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2133" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2134" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2136" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2137" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2138" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2139" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2140" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2141" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2142" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2143" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2144" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2145" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2146" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2148" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2151" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2152" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2153" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2153" s="39"/>
+      <c r="C2153" s="39"/>
+      <c r="D2153" s="39"/>
+      <c r="E2153" s="39"/>
+      <c r="F2153" s="39"/>
+      <c r="G2153" s="39"/>
+      <c r="H2153" s="39"/>
+      <c r="I2153" s="39"/>
+      <c r="J2153" s="39"/>
+      <c r="K2153" s="39"/>
+      <c r="L2153" s="39"/>
+      <c r="M2153" s="39"/>
+      <c r="N2153" s="39"/>
+      <c r="O2153" s="39"/>
+      <c r="P2153" s="39"/>
+      <c r="Q2153" s="39"/>
+      <c r="R2153" s="39"/>
+      <c r="S2153" s="39"/>
+      <c r="T2153" s="39"/>
+      <c r="U2153" s="39"/>
+      <c r="V2153" s="39"/>
+      <c r="W2153" s="39"/>
+      <c r="X2153" s="39"/>
+      <c r="Y2153" s="39"/>
+      <c r="Z2153" s="39"/>
+      <c r="AA2153" s="39"/>
+      <c r="AB2153" s="39"/>
+      <c r="AC2153" s="39"/>
+      <c r="AD2153" s="39"/>
+      <c r="AE2153" s="39"/>
+      <c r="AF2153" s="39"/>
+      <c r="AG2153" s="39"/>
+    </row>
+    <row r="2154" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2155" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2156" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2157" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2158" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2159" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2160" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2161" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2162" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2250" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2251" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2252" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2253" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2254" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2255" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2256" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2257" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2258" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2260" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2261" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2262" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2264" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2266" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2267" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2268" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2269" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2271" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2273" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2274" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2275" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2276" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2277" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2278" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2279" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2280" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2282" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2284" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2285" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2286" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2288" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2289" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2290" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2291" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2292" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2293" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2294" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2295" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2296" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2297" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2298" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2301" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2302" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2303" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2305" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2306" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2307" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2308" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2309" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2310" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2311" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2312" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2313" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2314" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2315" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2316" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2317" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2317" s="39"/>
+      <c r="C2317" s="39"/>
+      <c r="D2317" s="39"/>
+      <c r="E2317" s="39"/>
+      <c r="F2317" s="39"/>
+      <c r="G2317" s="39"/>
+      <c r="H2317" s="39"/>
+      <c r="I2317" s="39"/>
+      <c r="J2317" s="39"/>
+      <c r="K2317" s="39"/>
+      <c r="L2317" s="39"/>
+      <c r="M2317" s="39"/>
+      <c r="N2317" s="39"/>
+      <c r="O2317" s="39"/>
+      <c r="P2317" s="39"/>
+      <c r="Q2317" s="39"/>
+      <c r="R2317" s="39"/>
+      <c r="S2317" s="39"/>
+      <c r="T2317" s="39"/>
+      <c r="U2317" s="39"/>
+      <c r="V2317" s="39"/>
+      <c r="W2317" s="39"/>
+      <c r="X2317" s="39"/>
+      <c r="Y2317" s="39"/>
+      <c r="Z2317" s="39"/>
+      <c r="AA2317" s="39"/>
+      <c r="AB2317" s="39"/>
+      <c r="AC2317" s="39"/>
+      <c r="AD2317" s="39"/>
+      <c r="AE2317" s="39"/>
+      <c r="AF2317" s="39"/>
+      <c r="AG2317" s="39"/>
+    </row>
+    <row r="2318" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2319" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2320" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2321" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2322" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2323" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2324" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2325" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2326" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2327" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2328" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2329" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2330" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2331" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2332" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2333" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2334" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2350" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2351" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2352" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2353" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2354" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2355" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2356" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2357" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2358" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2359" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2360" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2361" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2362" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2363" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2364" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2365" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2367" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2368" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2369" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2370" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2371" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2372" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2373" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2374" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2375" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2376" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2377" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2378" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2380" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2381" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2382" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2383" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2384" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2385" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2386" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2387" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2388" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2390" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2391" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2392" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2393" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2394" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2395" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2396" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2397" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2400" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2401" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2402" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2403" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2404" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2405" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2406" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2407" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2408" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2410" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2411" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2412" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2413" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2414" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2415" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2416" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2417" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2418" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2419" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2419" s="39"/>
+      <c r="C2419" s="39"/>
+      <c r="D2419" s="39"/>
+      <c r="E2419" s="39"/>
+      <c r="F2419" s="39"/>
+      <c r="G2419" s="39"/>
+      <c r="H2419" s="39"/>
+      <c r="I2419" s="39"/>
+      <c r="J2419" s="39"/>
+      <c r="K2419" s="39"/>
+      <c r="L2419" s="39"/>
+      <c r="M2419" s="39"/>
+      <c r="N2419" s="39"/>
+      <c r="O2419" s="39"/>
+      <c r="P2419" s="39"/>
+      <c r="Q2419" s="39"/>
+      <c r="R2419" s="39"/>
+      <c r="S2419" s="39"/>
+      <c r="T2419" s="39"/>
+      <c r="U2419" s="39"/>
+      <c r="V2419" s="39"/>
+      <c r="W2419" s="39"/>
+      <c r="X2419" s="39"/>
+      <c r="Y2419" s="39"/>
+      <c r="Z2419" s="39"/>
+      <c r="AA2419" s="39"/>
+      <c r="AB2419" s="39"/>
+      <c r="AC2419" s="39"/>
+      <c r="AD2419" s="39"/>
+      <c r="AE2419" s="39"/>
+      <c r="AF2419" s="39"/>
+      <c r="AG2419" s="39"/>
+    </row>
+    <row r="2420" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2421" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2422" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2423" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2424" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2425" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2426" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2427" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2428" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2429" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2430" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2431" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2432" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2433" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2434" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2435" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2436" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2437" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2450" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2451" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2452" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2453" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2454" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2455" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2457" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2459" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2461" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2462" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2463" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2464" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2465" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2467" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2468" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2469" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2470" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2471" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2472" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2473" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2475" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2476" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2477" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2478" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2479" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2480" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2481" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2482" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2483" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2484" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2486" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2488" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2489" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2490" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2491" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2492" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2495" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2496" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2498" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2499" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2500" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2501" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2502" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2504" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2505" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2506" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2507" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2508" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2509" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2509" s="39"/>
+      <c r="C2509" s="39"/>
+      <c r="D2509" s="39"/>
+      <c r="E2509" s="39"/>
+      <c r="F2509" s="39"/>
+      <c r="G2509" s="39"/>
+      <c r="H2509" s="39"/>
+      <c r="I2509" s="39"/>
+      <c r="J2509" s="39"/>
+      <c r="K2509" s="39"/>
+      <c r="L2509" s="39"/>
+      <c r="M2509" s="39"/>
+      <c r="N2509" s="39"/>
+      <c r="O2509" s="39"/>
+      <c r="P2509" s="39"/>
+      <c r="Q2509" s="39"/>
+      <c r="R2509" s="39"/>
+      <c r="S2509" s="39"/>
+      <c r="T2509" s="39"/>
+      <c r="U2509" s="39"/>
+      <c r="V2509" s="39"/>
+      <c r="W2509" s="39"/>
+      <c r="X2509" s="39"/>
+      <c r="Y2509" s="39"/>
+      <c r="Z2509" s="39"/>
+      <c r="AA2509" s="39"/>
+      <c r="AB2509" s="39"/>
+      <c r="AC2509" s="39"/>
+      <c r="AD2509" s="39"/>
+      <c r="AE2509" s="39"/>
+      <c r="AF2509" s="39"/>
+      <c r="AG2509" s="39"/>
+    </row>
+    <row r="2510" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2511" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2512" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2513" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2514" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2515" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2516" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2517" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2518" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2519" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2520" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2521" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2522" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2523" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2524" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2525" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2526" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2527" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2528" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2529" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2550" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2551" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2552" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2553" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2554" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2555" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2556" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2557" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2558" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2559" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2561" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2562" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2563" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2564" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2565" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2566" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2568" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2569" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2570" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2571" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2572" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2573" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2575" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2576" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2577" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2578" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2579" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2581" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2582" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2583" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2584" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2585" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2586" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2588" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2589" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2590" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2591" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2592" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2593" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2595" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2596" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2597" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2598" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2598" s="39"/>
+      <c r="C2598" s="39"/>
+      <c r="D2598" s="39"/>
+      <c r="E2598" s="39"/>
+      <c r="F2598" s="39"/>
+      <c r="G2598" s="39"/>
+      <c r="H2598" s="39"/>
+      <c r="I2598" s="39"/>
+      <c r="J2598" s="39"/>
+      <c r="K2598" s="39"/>
+      <c r="L2598" s="39"/>
+      <c r="M2598" s="39"/>
+      <c r="N2598" s="39"/>
+      <c r="O2598" s="39"/>
+      <c r="P2598" s="39"/>
+      <c r="Q2598" s="39"/>
+      <c r="R2598" s="39"/>
+      <c r="S2598" s="39"/>
+      <c r="T2598" s="39"/>
+      <c r="U2598" s="39"/>
+      <c r="V2598" s="39"/>
+      <c r="W2598" s="39"/>
+      <c r="X2598" s="39"/>
+      <c r="Y2598" s="39"/>
+      <c r="Z2598" s="39"/>
+      <c r="AA2598" s="39"/>
+      <c r="AB2598" s="39"/>
+      <c r="AC2598" s="39"/>
+      <c r="AD2598" s="39"/>
+      <c r="AE2598" s="39"/>
+      <c r="AF2598" s="39"/>
+      <c r="AG2598" s="39"/>
+    </row>
+    <row r="2599" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2600" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2601" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2602" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2603" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2604" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2605" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2606" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2607" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2608" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2609" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2610" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2611" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2612" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2613" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2614" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2615" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2625" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2626" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2627" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2628" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2629" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2630" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2631" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2632" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2633" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2634" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2635" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2636" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2637" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2638" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2639" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2640" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2641" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2642" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2643" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2644" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2645" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2646" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2648" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2649" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2650" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2651" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2652" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2653" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2654" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2655" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2656" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2657" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2658" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2659" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2662" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2663" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2664" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2665" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2666" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2667" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2668" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2669" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2670" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2671" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2672" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2673" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2674" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2675" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2676" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2677" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2678" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2679" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2680" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2681" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2682" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2683" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2684" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2685" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2686" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2687" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2689" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2690" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2691" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2692" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2693" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2694" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2695" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2696" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2697" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2698" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2699" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2700" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2701" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2702" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2703" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2704" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2707" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2708" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2709" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2710" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2711" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2712" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2713" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2714" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2715" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2716" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2717" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2718" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2719" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2719" s="39"/>
+      <c r="C2719" s="39"/>
+      <c r="D2719" s="39"/>
+      <c r="E2719" s="39"/>
+      <c r="F2719" s="39"/>
+      <c r="G2719" s="39"/>
+      <c r="H2719" s="39"/>
+      <c r="I2719" s="39"/>
+      <c r="J2719" s="39"/>
+      <c r="K2719" s="39"/>
+      <c r="L2719" s="39"/>
+      <c r="M2719" s="39"/>
+      <c r="N2719" s="39"/>
+      <c r="O2719" s="39"/>
+      <c r="P2719" s="39"/>
+      <c r="Q2719" s="39"/>
+      <c r="R2719" s="39"/>
+      <c r="S2719" s="39"/>
+      <c r="T2719" s="39"/>
+      <c r="U2719" s="39"/>
+      <c r="V2719" s="39"/>
+      <c r="W2719" s="39"/>
+      <c r="X2719" s="39"/>
+      <c r="Y2719" s="39"/>
+      <c r="Z2719" s="39"/>
+      <c r="AA2719" s="39"/>
+      <c r="AB2719" s="39"/>
+      <c r="AC2719" s="39"/>
+      <c r="AD2719" s="39"/>
+      <c r="AE2719" s="39"/>
+      <c r="AF2719" s="39"/>
+      <c r="AG2719" s="39"/>
+    </row>
+    <row r="2720" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2721" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2722" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2723" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2724" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2725" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2726" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2727" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2728" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2729" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2730" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2731" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2732" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2733" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2734" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2735" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2736" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2737" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2738" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2739" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2740" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2741" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2742" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2743" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2775" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2776" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2777" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2778" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2779" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2780" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2781" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2782" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2783" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2784" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2785" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2786" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2788" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2789" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2790" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2791" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2793" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2794" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2795" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2796" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2797" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2798" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2799" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2800" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2801" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2802" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2804" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2805" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2806" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2807" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2809" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2810" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2811" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2812" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2813" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2814" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2815" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2816" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2818" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2819" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2820" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2821" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2822" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2823" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2825" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2826" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2827" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2828" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2831" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2832" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2833" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2834" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2835" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2836" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2837" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2837" s="39"/>
+      <c r="C2837" s="39"/>
+      <c r="D2837" s="39"/>
+      <c r="E2837" s="39"/>
+      <c r="F2837" s="39"/>
+      <c r="G2837" s="39"/>
+      <c r="H2837" s="39"/>
+      <c r="I2837" s="39"/>
+      <c r="J2837" s="39"/>
+      <c r="K2837" s="39"/>
+      <c r="L2837" s="39"/>
+      <c r="M2837" s="39"/>
+      <c r="N2837" s="39"/>
+      <c r="O2837" s="39"/>
+      <c r="P2837" s="39"/>
+      <c r="Q2837" s="39"/>
+      <c r="R2837" s="39"/>
+      <c r="S2837" s="39"/>
+      <c r="T2837" s="39"/>
+      <c r="U2837" s="39"/>
+      <c r="V2837" s="39"/>
+      <c r="W2837" s="39"/>
+      <c r="X2837" s="39"/>
+      <c r="Y2837" s="39"/>
+      <c r="Z2837" s="39"/>
+      <c r="AA2837" s="39"/>
+      <c r="AB2837" s="39"/>
+      <c r="AC2837" s="39"/>
+      <c r="AD2837" s="39"/>
+      <c r="AE2837" s="39"/>
+      <c r="AF2837" s="39"/>
+      <c r="AG2837" s="39"/>
+    </row>
+    <row r="2838" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2839" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2840" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2841" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="B1698:AG1698"/>
@@ -13602,19 +13607,19 @@
       <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2021</v>
       </c>
@@ -13706,12 +13711,12 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -13806,7 +13811,7 @@
         <v>1.2943947926533267E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -13901,7 +13906,7 @@
         <v>2.2160738278677927E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -13996,12 +14001,12 @@
         <v>6.0819911025064013E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -14096,7 +14101,7 @@
         <v>9.44408217815732E-8</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -14191,7 +14196,7 @@
         <v>1.6168779001610508E-7</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -14286,12 +14291,12 @@
         <v>4.4375042378802073E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -14416,7 +14421,7 @@
         <v>1.3888356144348999E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -14541,7 +14546,7 @@
         <v>2.3777616178838979E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -14666,12 +14671,12 @@
         <v>6.525741526294422E-7</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2021</v>
       </c>
@@ -14763,12 +14768,12 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -14863,7 +14868,7 @@
         <v>1.4392607681469868E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -14958,7 +14963,7 @@
         <v>2.9153310081515436E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -15053,12 +15058,12 @@
         <v>6.0819911025064013E-7</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -15153,7 +15158,7 @@
         <v>1.0501044231115356E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -15248,7 +15253,7 @@
         <v>2.1270655424281652E-7</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -15343,12 +15348,12 @@
         <v>4.4375042378802073E-8</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -15473,7 +15478,7 @@
         <v>1.5442712104581404E-6</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -15598,7 +15603,7 @@
         <v>3.12803756239436E-6</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -15723,12 +15728,12 @@
         <v>6.525741526294422E-7</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -15853,7 +15858,7 @@
         <v>1.5543559602324045E-7</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -15978,7 +15983,7 @@
         <v>7.502759445104621E-7</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -16103,12 +16108,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -16229,7 +16234,7 @@
         <v>-0.10799682688729159</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -16350,12 +16355,12 @@
         <v>-0.25735532000058275</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -16476,7 +16481,7 @@
         <v>9.0311903435417378</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -16610,17 +16615,17 @@
       <selection activeCell="C3" sqref="C3:AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>2021</v>
       </c>
@@ -16712,7 +16717,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -16837,7 +16842,7 @@
         <v>76.912497999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -16962,12 +16967,12 @@
         <v>50.674477000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>226</v>
       </c>
@@ -17065,7 +17070,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -17163,7 +17168,7 @@
         <v>82.194199999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>228</v>
       </c>
@@ -17261,7 +17266,7 @@
         <v>351.29500000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>229</v>
       </c>
@@ -17359,7 +17364,7 @@
         <v>49.119</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>230</v>
       </c>
@@ -17457,7 +17462,7 @@
         <v>79.024000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>231</v>
       </c>
@@ -17555,7 +17560,7 @@
         <v>416.41899999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>232</v>
       </c>
@@ -17653,7 +17658,7 @@
         <v>607.66099999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -17751,7 +17756,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>234</v>
       </c>
@@ -17849,7 +17854,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>235</v>
       </c>
@@ -17947,7 +17952,7 @@
         <v>0.47799999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>236</v>
       </c>
@@ -18045,7 +18050,7 @@
         <v>26.628</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>237</v>
       </c>
@@ -18143,7 +18148,7 @@
         <v>294.84899999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>238</v>
       </c>
@@ -18241,7 +18246,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>239</v>
       </c>
@@ -18339,7 +18344,7 @@
         <v>11.148999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>240</v>
       </c>
@@ -18437,7 +18442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>241</v>
       </c>
@@ -18535,7 +18540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>242</v>
       </c>
@@ -18633,7 +18638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -18762,12 +18767,12 @@
         <v>82.417199999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -18775,7 +18780,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -18794,20 +18799,20 @@
   <dimension ref="A1:AJ119"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.6328125" customWidth="1"/>
-    <col min="2" max="2" width="39.7265625" customWidth="1"/>
+    <col min="1" max="1" width="68.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="36" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="36" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>57</v>
       </c>
@@ -18847,21 +18852,21 @@
       <c r="AI1" s="10"/>
       <c r="AJ1" s="10"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="M2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -18869,7 +18874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>71</v>
       </c>
@@ -18880,7 +18885,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -18891,7 +18896,7 @@
         <v>3.6256791591385165</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -18902,7 +18907,7 @@
         <v>2.2124867557274697</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -18913,7 +18918,7 @@
         <v>0.15230684857126578</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -18924,7 +18929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -18935,7 +18940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -18946,7 +18951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -18957,7 +18962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -18968,7 +18973,7 @@
         <v>6.9518421539183022</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -18979,7 +18984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -18990,7 +18995,7 @@
         <v>2.2124867557274697</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -19001,7 +19006,7 @@
         <v>7.295618081459569</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -19012,7 +19017,7 @@
         <v>6.1423270460699575</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -19023,7 +19028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -19034,7 +19039,7 @@
         <v>2.2124867557274697</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -19045,7 +19050,7 @@
         <v>2.2124867557274697</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -19056,12 +19061,12 @@
         <v>6.7522876908857299</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2020</v>
       </c>
@@ -19156,7 +19161,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>226</v>
       </c>
@@ -19254,7 +19259,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>243</v>
       </c>
@@ -19353,7 +19358,7 @@
       </c>
       <c r="AG26" s="7"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>244</v>
       </c>
@@ -19452,7 +19457,7 @@
       </c>
       <c r="AG27" s="7"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>245</v>
       </c>
@@ -19551,7 +19556,7 @@
       </c>
       <c r="AG28" s="7"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>246</v>
       </c>
@@ -19650,7 +19655,7 @@
       </c>
       <c r="AG29" s="7"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>247</v>
       </c>
@@ -19749,7 +19754,7 @@
       </c>
       <c r="AG30" s="7"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>248</v>
       </c>
@@ -19848,7 +19853,7 @@
       </c>
       <c r="AG31" s="7"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>249</v>
       </c>
@@ -19947,7 +19952,7 @@
       </c>
       <c r="AG32" s="7"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>250</v>
       </c>
@@ -20046,7 +20051,7 @@
       </c>
       <c r="AG33" s="7"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>251</v>
       </c>
@@ -20145,7 +20150,7 @@
       </c>
       <c r="AG34" s="7"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>252</v>
       </c>
@@ -20244,7 +20249,7 @@
       </c>
       <c r="AG35" s="7"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>253</v>
       </c>
@@ -20343,7 +20348,7 @@
       </c>
       <c r="AG36" s="7"/>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>254</v>
       </c>
@@ -20442,7 +20447,7 @@
       </c>
       <c r="AG37" s="7"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>255</v>
       </c>
@@ -20541,7 +20546,7 @@
       </c>
       <c r="AG38" s="7"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>256</v>
       </c>
@@ -20640,7 +20645,7 @@
       </c>
       <c r="AG39" s="7"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>257</v>
       </c>
@@ -20739,7 +20744,7 @@
       </c>
       <c r="AG40" s="7"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>258</v>
       </c>
@@ -20838,12 +20843,12 @@
       </c>
       <c r="AG41" s="7"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2019</v>
       </c>
@@ -20938,7 +20943,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
         <v>226</v>
       </c>
@@ -21036,7 +21041,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>259</v>
       </c>
@@ -21135,7 +21140,7 @@
       </c>
       <c r="AG47" s="7"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>260</v>
       </c>
@@ -21234,7 +21239,7 @@
       </c>
       <c r="AG48" s="7"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>261</v>
       </c>
@@ -21333,7 +21338,7 @@
       </c>
       <c r="AG49" s="7"/>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>262</v>
       </c>
@@ -21431,7 +21436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
         <v>263</v>
       </c>
@@ -21529,7 +21534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
         <v>264</v>
       </c>
@@ -21627,7 +21632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
         <v>265</v>
       </c>
@@ -21725,7 +21730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>266</v>
       </c>
@@ -21824,7 +21829,7 @@
       </c>
       <c r="AG54" s="7"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
         <v>267</v>
       </c>
@@ -21922,7 +21927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>268</v>
       </c>
@@ -22021,7 +22026,7 @@
       </c>
       <c r="AG56" s="7"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>269</v>
       </c>
@@ -22120,7 +22125,7 @@
       </c>
       <c r="AG57" s="7"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>270</v>
       </c>
@@ -22219,7 +22224,7 @@
       </c>
       <c r="AG58" s="7"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="35" t="s">
         <v>271</v>
       </c>
@@ -22317,7 +22322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>272</v>
       </c>
@@ -22416,7 +22421,7 @@
       </c>
       <c r="AG60" s="7"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>273</v>
       </c>
@@ -22515,7 +22520,7 @@
       </c>
       <c r="AG61" s="7"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>274</v>
       </c>
@@ -22614,7 +22619,7 @@
       </c>
       <c r="AG62" s="7"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>43</v>
       </c>
@@ -22650,7 +22655,7 @@
       <c r="AE64" s="35"/>
       <c r="AF64" s="35"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="35" t="s">
         <v>226</v>
       </c>
@@ -22748,7 +22753,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="35" t="s">
         <v>275</v>
       </c>
@@ -22846,7 +22851,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
         <v>276</v>
       </c>
@@ -22944,7 +22949,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
         <v>277</v>
       </c>
@@ -23042,7 +23047,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
         <v>278</v>
       </c>
@@ -23140,7 +23145,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="35" t="s">
         <v>279</v>
       </c>
@@ -23238,7 +23243,7 @@
         <v>0.344559</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
         <v>280</v>
       </c>
@@ -23336,7 +23341,7 @@
         <v>0.225104</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="35" t="s">
         <v>281</v>
       </c>
@@ -23434,7 +23439,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="35" t="s">
         <v>282</v>
       </c>
@@ -23532,7 +23537,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="35" t="s">
         <v>283</v>
       </c>
@@ -23630,7 +23635,7 @@
         <v>0.69099999999999995</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
         <v>284</v>
       </c>
@@ -23728,7 +23733,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
         <v>285</v>
       </c>
@@ -23826,7 +23831,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
         <v>286</v>
       </c>
@@ -23924,7 +23929,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
         <v>287</v>
       </c>
@@ -24022,7 +24027,7 @@
         <v>0.48799999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
         <v>288</v>
       </c>
@@ -24120,7 +24125,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="35" t="s">
         <v>289</v>
       </c>
@@ -24218,7 +24223,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="35" t="s">
         <v>290</v>
       </c>
@@ -24316,7 +24321,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>42</v>
       </c>
@@ -24352,7 +24357,7 @@
       <c r="AE84" s="35"/>
       <c r="AF84" s="35"/>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="35" t="s">
         <v>22</v>
       </c>
@@ -24391,7 +24396,7 @@
       <c r="AE85" s="35"/>
       <c r="AF85" s="35"/>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="35" t="s">
         <v>23</v>
       </c>
@@ -24430,7 +24435,7 @@
       <c r="AE86" s="35"/>
       <c r="AF86" s="35"/>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="35" t="s">
         <v>24</v>
       </c>
@@ -24469,7 +24474,7 @@
       <c r="AE87" s="35"/>
       <c r="AF87" s="35"/>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="35" t="s">
         <v>25</v>
       </c>
@@ -24508,7 +24513,7 @@
       <c r="AE88" s="35"/>
       <c r="AF88" s="35"/>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
         <v>26</v>
       </c>
@@ -24547,7 +24552,7 @@
       <c r="AE89" s="35"/>
       <c r="AF89" s="35"/>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
         <v>55</v>
       </c>
@@ -24586,7 +24591,7 @@
       <c r="AE90" s="35"/>
       <c r="AF90" s="35"/>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="35" t="s">
         <v>56</v>
       </c>
@@ -24625,7 +24630,7 @@
       <c r="AE91" s="35"/>
       <c r="AF91" s="35"/>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="35" t="s">
         <v>29</v>
       </c>
@@ -24664,7 +24669,7 @@
       <c r="AE92" s="35"/>
       <c r="AF92" s="35"/>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="35" t="s">
         <v>30</v>
       </c>
@@ -24703,7 +24708,7 @@
       <c r="AE93" s="35"/>
       <c r="AF93" s="35"/>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="35" t="s">
         <v>31</v>
       </c>
@@ -24742,7 +24747,7 @@
       <c r="AE94" s="35"/>
       <c r="AF94" s="35"/>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>32</v>
       </c>
@@ -24751,7 +24756,7 @@
         <v>31.660981722804298</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>46</v>
       </c>
@@ -24760,7 +24765,7 @@
         <v>27.973053674958038</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>48</v>
       </c>
@@ -24769,7 +24774,7 @@
         <v>19.985791138095703</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>50</v>
       </c>
@@ -24778,7 +24783,7 @@
         <v>73.406082503372176</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>51</v>
       </c>
@@ -24787,7 +24792,7 @@
         <v>177.6232874133722</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>52</v>
       </c>
@@ -24796,12 +24801,12 @@
         <v>38.937704972409108</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -24812,7 +24817,7 @@
       <c r="C103" s="8"/>
       <c r="D103" s="13"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -24823,7 +24828,7 @@
       <c r="C104" s="8"/>
       <c r="D104" s="13"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>24</v>
       </c>
@@ -24834,7 +24839,7 @@
       <c r="C105" s="8"/>
       <c r="D105" s="13"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -24845,7 +24850,7 @@
       <c r="C106" s="8"/>
       <c r="D106" s="13"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -24856,7 +24861,7 @@
       <c r="C107" s="8"/>
       <c r="D107" s="13"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>55</v>
       </c>
@@ -24867,7 +24872,7 @@
       <c r="C108" s="8"/>
       <c r="D108" s="13"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>56</v>
       </c>
@@ -24878,7 +24883,7 @@
       <c r="C109" s="8"/>
       <c r="D109" s="13"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>29</v>
       </c>
@@ -24889,7 +24894,7 @@
       <c r="C110" s="8"/>
       <c r="D110" s="13"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -24900,7 +24905,7 @@
       <c r="C111" s="8"/>
       <c r="D111" s="13"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -24911,7 +24916,7 @@
       <c r="C112" s="8"/>
       <c r="D112" s="13"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>32</v>
       </c>
@@ -24922,7 +24927,7 @@
       <c r="C113" s="8"/>
       <c r="D113" s="13"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>46</v>
       </c>
@@ -24933,7 +24938,7 @@
       <c r="C114" s="8"/>
       <c r="D114" s="13"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>48</v>
       </c>
@@ -24944,7 +24949,7 @@
       <c r="C115" s="8"/>
       <c r="D115" s="13"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>50</v>
       </c>
@@ -24955,7 +24960,7 @@
       <c r="C116" s="8"/>
       <c r="D116" s="13"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>51</v>
       </c>
@@ -24966,7 +24971,7 @@
       <c r="C117" s="8"/>
       <c r="D117" s="13"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>52</v>
       </c>
@@ -24977,7 +24982,7 @@
       <c r="C118" s="8"/>
       <c r="D118" s="13"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D119" s="13"/>
     </row>
   </sheetData>
@@ -24994,23 +24999,21 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.08984375" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -25019,130 +25022,139 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>292</v>
       </c>
       <c r="B3" s="4">
         <f>$B$2*Weighting!B104</f>
         <v>7298.6476399991252</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="4">
+        <f>$B$2*Weighting!B104</f>
+        <v>7298.6476399991252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="4">
         <f>'High OGS Calibration'!B29</f>
         <v>7000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <f>$B$2*Weighting!B106</f>
         <v>1144.3963092229249</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <f>$B$2*Weighting!B109</f>
         <v>11225.041914104922</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="4">
         <f>$B$2*Weighting!B110</f>
         <v>11695.430508205833</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <f>$B$2*Weighting!B111</f>
         <v>4796.0149931538845</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B14" s="4">
         <f>$B$2*Weighting!B114</f>
         <v>7357.7569162148739</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18" s="4">
         <f>$B$2*Weighting!B118</f>
         <v>10241.790953225531</v>
       </c>

--- a/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
+++ b/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\ARpUIiRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDD3775-89ED-48E6-8FED-A6D531BF5E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8353D794-BDC7-4571-AD22-2E34D0FD45D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="606" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="606" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="1328">
   <si>
     <t>ARpUIiRC Annual Retirement per Unit Increase in Relative Cost</t>
   </si>
@@ -4047,7 +4047,10 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
@@ -4059,7 +4062,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4152,6 +4155,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4234,7 +4244,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4300,6 +4310,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -16624,15 +16637,6 @@
     <row r="2841" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2598:AG2598"/>
-    <mergeCell ref="B2719:AG2719"/>
-    <mergeCell ref="B2837:AG2837"/>
-    <mergeCell ref="B1945:AG1945"/>
-    <mergeCell ref="B2031:AG2031"/>
-    <mergeCell ref="B2153:AG2153"/>
-    <mergeCell ref="B2317:AG2317"/>
-    <mergeCell ref="B2419:AG2419"/>
-    <mergeCell ref="B2509:AG2509"/>
     <mergeCell ref="B1698:AG1698"/>
     <mergeCell ref="B87:AG87"/>
     <mergeCell ref="B112:AG112"/>
@@ -16645,6 +16649,15 @@
     <mergeCell ref="B1390:AG1390"/>
     <mergeCell ref="B1502:AG1502"/>
     <mergeCell ref="B1604:AG1604"/>
+    <mergeCell ref="B2598:AG2598"/>
+    <mergeCell ref="B2719:AG2719"/>
+    <mergeCell ref="B2837:AG2837"/>
+    <mergeCell ref="B1945:AG1945"/>
+    <mergeCell ref="B2031:AG2031"/>
+    <mergeCell ref="B2153:AG2153"/>
+    <mergeCell ref="B2317:AG2317"/>
+    <mergeCell ref="B2419:AG2419"/>
+    <mergeCell ref="B2509:AG2509"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -63852,10 +63865,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64055,10 +64068,18 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="38" t="s">
         <v>1326</v>
       </c>
       <c r="B24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B25" s="3">
         <v>0</v>
       </c>
     </row>
